--- a/vp_Error_Code.xlsx
+++ b/vp_Error_Code.xlsx
@@ -5227,10 +5227,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>Zero_Degree_Set_작업절차서.pdf</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>attach</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -5713,6 +5709,10 @@
   <si>
     <t>잘못된 Mapping 설정 값
 (상하 맵핑 티칭 차이 값이 허용 편차보다 큼 등)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>VP_Zero_Degree.pdf</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -6094,6 +6094,15 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6110,15 +6119,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6403,8 +6403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:F1022"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34:E34"/>
+    <sheetView tabSelected="1" topLeftCell="B1017" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J1026" sqref="J1026"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -6426,7 +6426,7 @@
         <v>878</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="2" spans="3:6" x14ac:dyDescent="0.4">
@@ -6617,7 +6617,7 @@
         <v>16</v>
       </c>
       <c r="E17" s="26" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="F17" s="1"/>
     </row>
@@ -6629,7 +6629,7 @@
         <v>18</v>
       </c>
       <c r="E18" s="26" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="F18" s="1"/>
     </row>
@@ -6650,10 +6650,10 @@
         <v>253</v>
       </c>
       <c r="D20" s="3" t="s">
+        <v>1532</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>1533</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>1534</v>
       </c>
       <c r="F20" s="1"/>
     </row>
@@ -6662,10 +6662,10 @@
         <v>254</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="F21" s="1"/>
     </row>
@@ -6674,10 +6674,10 @@
         <v>255</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="F22" s="1"/>
     </row>
@@ -6686,10 +6686,10 @@
         <v>256</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="F23" s="1"/>
     </row>
@@ -6698,10 +6698,10 @@
         <v>257</v>
       </c>
       <c r="D24" s="22" t="s">
+        <v>1537</v>
+      </c>
+      <c r="E24" s="22" t="s">
         <v>1538</v>
-      </c>
-      <c r="E24" s="22" t="s">
-        <v>1539</v>
       </c>
       <c r="F24" s="1"/>
     </row>
@@ -6713,7 +6713,7 @@
         <v>17</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="F25" s="1"/>
     </row>
@@ -6722,10 +6722,10 @@
         <v>260</v>
       </c>
       <c r="D26" s="28" t="s">
+        <v>1545</v>
+      </c>
+      <c r="E26" s="28" t="s">
         <v>1546</v>
-      </c>
-      <c r="E26" s="28" t="s">
-        <v>1547</v>
       </c>
       <c r="F26" s="1"/>
     </row>
@@ -6734,10 +6734,10 @@
         <v>261</v>
       </c>
       <c r="D27" s="28" t="s">
+        <v>1547</v>
+      </c>
+      <c r="E27" s="28" t="s">
         <v>1548</v>
-      </c>
-      <c r="E27" s="28" t="s">
-        <v>1549</v>
       </c>
       <c r="F27" s="1"/>
     </row>
@@ -6746,10 +6746,10 @@
         <v>262</v>
       </c>
       <c r="D28" s="28" t="s">
+        <v>1549</v>
+      </c>
+      <c r="E28" s="28" t="s">
         <v>1550</v>
-      </c>
-      <c r="E28" s="28" t="s">
-        <v>1551</v>
       </c>
       <c r="F28" s="1"/>
     </row>
@@ -6758,10 +6758,10 @@
         <v>263</v>
       </c>
       <c r="D29" s="28" t="s">
+        <v>1551</v>
+      </c>
+      <c r="E29" s="28" t="s">
         <v>1552</v>
-      </c>
-      <c r="E29" s="28" t="s">
-        <v>1553</v>
       </c>
       <c r="F29" s="1"/>
     </row>
@@ -6770,10 +6770,10 @@
         <v>264</v>
       </c>
       <c r="D30" s="28" t="s">
+        <v>1553</v>
+      </c>
+      <c r="E30" s="28" t="s">
         <v>1554</v>
-      </c>
-      <c r="E30" s="28" t="s">
-        <v>1555</v>
       </c>
       <c r="F30" s="1"/>
     </row>
@@ -6782,10 +6782,10 @@
         <v>265</v>
       </c>
       <c r="D31" s="28" t="s">
+        <v>1555</v>
+      </c>
+      <c r="E31" s="28" t="s">
         <v>1556</v>
-      </c>
-      <c r="E31" s="28" t="s">
-        <v>1557</v>
       </c>
       <c r="F31" s="1"/>
     </row>
@@ -6794,10 +6794,10 @@
         <v>266</v>
       </c>
       <c r="D32" s="26" t="s">
+        <v>1557</v>
+      </c>
+      <c r="E32" s="26" t="s">
         <v>1558</v>
-      </c>
-      <c r="E32" s="26" t="s">
-        <v>1559</v>
       </c>
       <c r="F32" s="1"/>
     </row>
@@ -6806,10 +6806,10 @@
         <v>270</v>
       </c>
       <c r="D33" s="26" t="s">
+        <v>1559</v>
+      </c>
+      <c r="E33" s="32" t="s">
         <v>1560</v>
-      </c>
-      <c r="E33" s="32" t="s">
-        <v>1561</v>
       </c>
       <c r="F33" s="33"/>
     </row>
@@ -6817,11 +6817,11 @@
       <c r="C34" s="24">
         <v>271</v>
       </c>
-      <c r="D34" s="45" t="s">
-        <v>1562</v>
+      <c r="D34" s="37" t="s">
+        <v>1561</v>
       </c>
       <c r="E34" s="34" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="F34" s="35"/>
     </row>
@@ -6830,10 +6830,10 @@
         <v>272</v>
       </c>
       <c r="D35" s="29" t="s">
+        <v>1562</v>
+      </c>
+      <c r="E35" s="32" t="s">
         <v>1563</v>
-      </c>
-      <c r="E35" s="32" t="s">
-        <v>1564</v>
       </c>
       <c r="F35" s="33"/>
     </row>
@@ -6842,10 +6842,10 @@
         <v>273</v>
       </c>
       <c r="D36" s="29" t="s">
+        <v>1564</v>
+      </c>
+      <c r="E36" s="32" t="s">
         <v>1565</v>
-      </c>
-      <c r="E36" s="32" t="s">
-        <v>1566</v>
       </c>
       <c r="F36" s="33"/>
     </row>
@@ -6854,10 +6854,10 @@
         <v>276</v>
       </c>
       <c r="D37" s="28" t="s">
+        <v>1566</v>
+      </c>
+      <c r="E37" s="32" t="s">
         <v>1567</v>
-      </c>
-      <c r="E37" s="32" t="s">
-        <v>1568</v>
       </c>
       <c r="F37" s="33"/>
     </row>
@@ -6866,10 +6866,10 @@
         <v>277</v>
       </c>
       <c r="D38" s="28" t="s">
+        <v>1568</v>
+      </c>
+      <c r="E38" s="32" t="s">
         <v>1569</v>
-      </c>
-      <c r="E38" s="32" t="s">
-        <v>1570</v>
       </c>
       <c r="F38" s="33"/>
     </row>
@@ -6878,10 +6878,10 @@
         <v>278</v>
       </c>
       <c r="D39" s="28" t="s">
+        <v>1570</v>
+      </c>
+      <c r="E39" s="32" t="s">
         <v>1571</v>
-      </c>
-      <c r="E39" s="32" t="s">
-        <v>1572</v>
       </c>
       <c r="F39" s="33"/>
     </row>
@@ -6890,10 +6890,10 @@
         <v>280</v>
       </c>
       <c r="D40" s="28" t="s">
+        <v>1572</v>
+      </c>
+      <c r="E40" s="32" t="s">
         <v>1573</v>
-      </c>
-      <c r="E40" s="32" t="s">
-        <v>1574</v>
       </c>
       <c r="F40" s="33"/>
     </row>
@@ -6902,10 +6902,10 @@
         <v>281</v>
       </c>
       <c r="D41" s="28" t="s">
+        <v>1574</v>
+      </c>
+      <c r="E41" s="32" t="s">
         <v>1575</v>
-      </c>
-      <c r="E41" s="32" t="s">
-        <v>1576</v>
       </c>
       <c r="F41" s="33"/>
     </row>
@@ -6914,10 +6914,10 @@
         <v>282</v>
       </c>
       <c r="D42" s="28" t="s">
+        <v>1576</v>
+      </c>
+      <c r="E42" s="32" t="s">
         <v>1577</v>
-      </c>
-      <c r="E42" s="32" t="s">
-        <v>1578</v>
       </c>
       <c r="F42" s="33"/>
     </row>
@@ -6926,10 +6926,10 @@
         <v>283</v>
       </c>
       <c r="D43" s="28" t="s">
+        <v>1578</v>
+      </c>
+      <c r="E43" s="32" t="s">
         <v>1579</v>
-      </c>
-      <c r="E43" s="32" t="s">
-        <v>1580</v>
       </c>
       <c r="F43" s="33"/>
     </row>
@@ -6938,10 +6938,10 @@
         <v>284</v>
       </c>
       <c r="D44" s="28" t="s">
+        <v>1580</v>
+      </c>
+      <c r="E44" s="32" t="s">
         <v>1581</v>
-      </c>
-      <c r="E44" s="32" t="s">
-        <v>1582</v>
       </c>
       <c r="F44" s="33"/>
     </row>
@@ -6950,10 +6950,10 @@
         <v>285</v>
       </c>
       <c r="D45" s="28" t="s">
+        <v>1582</v>
+      </c>
+      <c r="E45" s="32" t="s">
         <v>1583</v>
-      </c>
-      <c r="E45" s="32" t="s">
-        <v>1584</v>
       </c>
       <c r="F45" s="33"/>
     </row>
@@ -6965,7 +6965,7 @@
         <v>21</v>
       </c>
       <c r="E46" s="32" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="F46" s="33"/>
     </row>
@@ -6977,7 +6977,7 @@
         <v>22</v>
       </c>
       <c r="E47" s="32" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="F47" s="33"/>
     </row>
@@ -6989,7 +6989,7 @@
         <v>23</v>
       </c>
       <c r="E48" s="32" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="F48" s="33"/>
     </row>
@@ -7001,7 +7001,7 @@
         <v>24</v>
       </c>
       <c r="E49" s="32" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="F49" s="33"/>
     </row>
@@ -7013,7 +7013,7 @@
         <v>25</v>
       </c>
       <c r="E50" s="32" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="F50" s="33"/>
     </row>
@@ -7025,7 +7025,7 @@
         <v>26</v>
       </c>
       <c r="E51" s="32" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="F51" s="33"/>
     </row>
@@ -7037,7 +7037,7 @@
         <v>27</v>
       </c>
       <c r="E52" s="28" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="F52" s="31"/>
     </row>
@@ -7049,7 +7049,7 @@
         <v>28</v>
       </c>
       <c r="E53" s="28" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="F53" s="31"/>
     </row>
@@ -7097,7 +7097,7 @@
         <v>37</v>
       </c>
       <c r="E57" s="28" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="F57" s="31"/>
     </row>
@@ -7130,10 +7130,10 @@
         <v>352</v>
       </c>
       <c r="D60" s="28" t="s">
+        <v>1593</v>
+      </c>
+      <c r="E60" s="28" t="s">
         <v>1594</v>
-      </c>
-      <c r="E60" s="28" t="s">
-        <v>1595</v>
       </c>
       <c r="F60" s="31"/>
     </row>
@@ -7145,27 +7145,27 @@
         <v>40</v>
       </c>
       <c r="E61" s="28" t="s">
+        <v>1595</v>
+      </c>
+      <c r="F61" s="31"/>
+    </row>
+    <row r="62" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C62" s="40">
+        <v>362</v>
+      </c>
+      <c r="D62" s="42" t="s">
         <v>1596</v>
       </c>
-      <c r="F61" s="31"/>
-    </row>
-    <row r="62" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C62" s="37">
-        <v>362</v>
-      </c>
-      <c r="D62" s="39" t="s">
+      <c r="E62" s="36" t="s">
         <v>1597</v>
       </c>
-      <c r="E62" s="36" t="s">
+      <c r="F62" s="31"/>
+    </row>
+    <row r="63" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C63" s="41"/>
+      <c r="D63" s="43"/>
+      <c r="E63" s="28" t="s">
         <v>1598</v>
-      </c>
-      <c r="F62" s="31"/>
-    </row>
-    <row r="63" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C63" s="38"/>
-      <c r="D63" s="40"/>
-      <c r="E63" s="28" t="s">
-        <v>1599</v>
       </c>
       <c r="F63" s="31"/>
     </row>
@@ -7177,7 +7177,7 @@
         <v>41</v>
       </c>
       <c r="E64" s="28" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="F64" s="31"/>
     </row>
@@ -7189,7 +7189,7 @@
         <v>42</v>
       </c>
       <c r="E65" s="28" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="F65" s="31"/>
     </row>
@@ -7198,10 +7198,10 @@
         <v>373</v>
       </c>
       <c r="D66" s="28" t="s">
+        <v>1601</v>
+      </c>
+      <c r="E66" s="28" t="s">
         <v>1602</v>
-      </c>
-      <c r="E66" s="28" t="s">
-        <v>1603</v>
       </c>
       <c r="F66" s="31"/>
     </row>
@@ -7234,10 +7234,10 @@
         <v>402</v>
       </c>
       <c r="D69" s="28" t="s">
+        <v>1603</v>
+      </c>
+      <c r="E69" s="28" t="s">
         <v>1604</v>
-      </c>
-      <c r="E69" s="28" t="s">
-        <v>1605</v>
       </c>
       <c r="F69" s="31"/>
     </row>
@@ -7246,10 +7246,10 @@
         <v>403</v>
       </c>
       <c r="D70" s="28" t="s">
+        <v>1605</v>
+      </c>
+      <c r="E70" s="28" t="s">
         <v>1606</v>
-      </c>
-      <c r="E70" s="28" t="s">
-        <v>1607</v>
       </c>
       <c r="F70" s="31"/>
     </row>
@@ -7258,10 +7258,10 @@
         <v>404</v>
       </c>
       <c r="D71" s="28" t="s">
+        <v>1607</v>
+      </c>
+      <c r="E71" s="28" t="s">
         <v>1608</v>
-      </c>
-      <c r="E71" s="28" t="s">
-        <v>1609</v>
       </c>
       <c r="F71" s="31"/>
     </row>
@@ -7270,10 +7270,10 @@
         <v>405</v>
       </c>
       <c r="D72" s="28" t="s">
+        <v>1609</v>
+      </c>
+      <c r="E72" s="28" t="s">
         <v>1610</v>
-      </c>
-      <c r="E72" s="28" t="s">
-        <v>1611</v>
       </c>
       <c r="F72" s="31"/>
     </row>
@@ -7282,10 +7282,10 @@
         <v>450</v>
       </c>
       <c r="D73" s="28" t="s">
+        <v>1611</v>
+      </c>
+      <c r="E73" s="28" t="s">
         <v>1612</v>
-      </c>
-      <c r="E73" s="28" t="s">
-        <v>1613</v>
       </c>
       <c r="F73" s="31"/>
     </row>
@@ -7294,10 +7294,10 @@
         <v>451</v>
       </c>
       <c r="D74" s="28" t="s">
+        <v>1613</v>
+      </c>
+      <c r="E74" s="28" t="s">
         <v>1614</v>
-      </c>
-      <c r="E74" s="28" t="s">
-        <v>1615</v>
       </c>
       <c r="F74" s="31"/>
     </row>
@@ -7306,10 +7306,10 @@
         <v>808</v>
       </c>
       <c r="D75" s="28" t="s">
+        <v>1615</v>
+      </c>
+      <c r="E75" s="28" t="s">
         <v>1616</v>
-      </c>
-      <c r="E75" s="28" t="s">
-        <v>1617</v>
       </c>
       <c r="F75" s="31"/>
     </row>
@@ -7318,10 +7318,10 @@
         <v>1178</v>
       </c>
       <c r="D76" s="28" t="s">
+        <v>1617</v>
+      </c>
+      <c r="E76" s="28" t="s">
         <v>1618</v>
-      </c>
-      <c r="E76" s="28" t="s">
-        <v>1619</v>
       </c>
       <c r="F76" s="1"/>
     </row>
@@ -7330,10 +7330,10 @@
         <v>2000</v>
       </c>
       <c r="D77" s="29" t="s">
+        <v>1619</v>
+      </c>
+      <c r="E77" s="28" t="s">
         <v>1620</v>
-      </c>
-      <c r="E77" s="28" t="s">
-        <v>1621</v>
       </c>
       <c r="F77" s="1"/>
     </row>
@@ -7345,7 +7345,7 @@
         <v>47</v>
       </c>
       <c r="E78" s="28" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="F78" s="1"/>
     </row>
@@ -7458,10 +7458,10 @@
       <c r="F87" s="1"/>
     </row>
     <row r="88" spans="3:6" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C88" s="43">
+      <c r="C88" s="38">
         <v>-208</v>
       </c>
-      <c r="D88" s="44" t="s">
+      <c r="D88" s="39" t="s">
         <v>63</v>
       </c>
       <c r="E88" s="6" t="s">
@@ -7470,14 +7470,14 @@
       <c r="F88" s="1"/>
     </row>
     <row r="89" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C89" s="43"/>
-      <c r="D89" s="44"/>
+      <c r="C89" s="38"/>
+      <c r="D89" s="39"/>
       <c r="E89" s="7"/>
       <c r="F89" s="1"/>
     </row>
     <row r="90" spans="3:6" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C90" s="43"/>
-      <c r="D90" s="44"/>
+      <c r="C90" s="38"/>
+      <c r="D90" s="39"/>
       <c r="E90" s="6" t="s">
         <v>65</v>
       </c>
@@ -7508,10 +7508,10 @@
       <c r="F92" s="1"/>
     </row>
     <row r="93" spans="3:6" ht="109.2" x14ac:dyDescent="0.4">
-      <c r="C93" s="43">
+      <c r="C93" s="38">
         <v>-211</v>
       </c>
-      <c r="D93" s="44" t="s">
+      <c r="D93" s="39" t="s">
         <v>70</v>
       </c>
       <c r="E93" s="6" t="s">
@@ -7520,72 +7520,72 @@
       <c r="F93" s="1"/>
     </row>
     <row r="94" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C94" s="43"/>
-      <c r="D94" s="44"/>
+      <c r="C94" s="38"/>
+      <c r="D94" s="39"/>
       <c r="E94" s="7"/>
       <c r="F94" s="1"/>
     </row>
     <row r="95" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C95" s="43"/>
-      <c r="D95" s="44"/>
+      <c r="C95" s="38"/>
+      <c r="D95" s="39"/>
       <c r="E95" s="6" t="s">
         <v>72</v>
       </c>
       <c r="F95" s="1"/>
     </row>
     <row r="96" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C96" s="43"/>
-      <c r="D96" s="44"/>
+      <c r="C96" s="38"/>
+      <c r="D96" s="39"/>
       <c r="E96" s="6" t="s">
         <v>73</v>
       </c>
       <c r="F96" s="1"/>
     </row>
     <row r="97" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C97" s="43"/>
-      <c r="D97" s="44"/>
+      <c r="C97" s="38"/>
+      <c r="D97" s="39"/>
       <c r="E97" s="6" t="s">
         <v>74</v>
       </c>
       <c r="F97" s="1"/>
     </row>
     <row r="98" spans="3:6" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C98" s="43"/>
-      <c r="D98" s="44"/>
+      <c r="C98" s="38"/>
+      <c r="D98" s="39"/>
       <c r="E98" s="6" t="s">
         <v>75</v>
       </c>
       <c r="F98" s="1"/>
     </row>
     <row r="99" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C99" s="43"/>
-      <c r="D99" s="44"/>
+      <c r="C99" s="38"/>
+      <c r="D99" s="39"/>
       <c r="E99" s="6" t="s">
         <v>76</v>
       </c>
       <c r="F99" s="1"/>
     </row>
     <row r="100" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C100" s="43"/>
-      <c r="D100" s="44"/>
+      <c r="C100" s="38"/>
+      <c r="D100" s="39"/>
       <c r="E100" s="6" t="s">
         <v>77</v>
       </c>
       <c r="F100" s="1"/>
     </row>
     <row r="101" spans="3:6" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C101" s="43"/>
-      <c r="D101" s="44"/>
+      <c r="C101" s="38"/>
+      <c r="D101" s="39"/>
       <c r="E101" s="6" t="s">
         <v>78</v>
       </c>
       <c r="F101" s="1"/>
     </row>
     <row r="102" spans="3:6" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C102" s="43">
+      <c r="C102" s="38">
         <v>-212</v>
       </c>
-      <c r="D102" s="44" t="s">
+      <c r="D102" s="39" t="s">
         <v>79</v>
       </c>
       <c r="E102" s="6" t="s">
@@ -7594,100 +7594,100 @@
       <c r="F102" s="1"/>
     </row>
     <row r="103" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C103" s="43"/>
-      <c r="D103" s="44"/>
+      <c r="C103" s="38"/>
+      <c r="D103" s="39"/>
       <c r="E103" s="7"/>
       <c r="F103" s="1"/>
     </row>
     <row r="104" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C104" s="43"/>
-      <c r="D104" s="44"/>
+      <c r="C104" s="38"/>
+      <c r="D104" s="39"/>
       <c r="E104" s="6" t="s">
         <v>80</v>
       </c>
       <c r="F104" s="1"/>
     </row>
     <row r="105" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C105" s="43"/>
-      <c r="D105" s="44"/>
+      <c r="C105" s="38"/>
+      <c r="D105" s="39"/>
       <c r="E105" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F105" s="1"/>
     </row>
     <row r="106" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C106" s="43"/>
-      <c r="D106" s="44"/>
+      <c r="C106" s="38"/>
+      <c r="D106" s="39"/>
       <c r="E106" s="6" t="s">
         <v>82</v>
       </c>
       <c r="F106" s="1"/>
     </row>
     <row r="107" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C107" s="43"/>
-      <c r="D107" s="44"/>
+      <c r="C107" s="38"/>
+      <c r="D107" s="39"/>
       <c r="E107" s="6" t="s">
         <v>83</v>
       </c>
       <c r="F107" s="1"/>
     </row>
     <row r="108" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C108" s="43"/>
-      <c r="D108" s="44"/>
+      <c r="C108" s="38"/>
+      <c r="D108" s="39"/>
       <c r="E108" s="6" t="s">
         <v>84</v>
       </c>
       <c r="F108" s="1"/>
     </row>
     <row r="109" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C109" s="43"/>
-      <c r="D109" s="44"/>
+      <c r="C109" s="38"/>
+      <c r="D109" s="39"/>
       <c r="E109" s="6" t="s">
         <v>85</v>
       </c>
       <c r="F109" s="1"/>
     </row>
     <row r="110" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C110" s="43"/>
-      <c r="D110" s="44"/>
+      <c r="C110" s="38"/>
+      <c r="D110" s="39"/>
       <c r="E110" s="6" t="s">
         <v>86</v>
       </c>
       <c r="F110" s="1"/>
     </row>
     <row r="111" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C111" s="43"/>
-      <c r="D111" s="44"/>
+      <c r="C111" s="38"/>
+      <c r="D111" s="39"/>
       <c r="E111" s="6" t="s">
         <v>87</v>
       </c>
       <c r="F111" s="1"/>
     </row>
     <row r="112" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C112" s="43"/>
-      <c r="D112" s="44"/>
+      <c r="C112" s="38"/>
+      <c r="D112" s="39"/>
       <c r="E112" s="6" t="s">
         <v>88</v>
       </c>
       <c r="F112" s="1"/>
     </row>
     <row r="113" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C113" s="43"/>
-      <c r="D113" s="44"/>
+      <c r="C113" s="38"/>
+      <c r="D113" s="39"/>
       <c r="E113" s="6" t="s">
         <v>89</v>
       </c>
       <c r="F113" s="1"/>
     </row>
     <row r="114" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C114" s="43"/>
-      <c r="D114" s="44"/>
+      <c r="C114" s="38"/>
+      <c r="D114" s="39"/>
       <c r="E114" s="7"/>
       <c r="F114" s="1"/>
     </row>
     <row r="115" spans="3:6" ht="78" x14ac:dyDescent="0.4">
-      <c r="C115" s="43"/>
-      <c r="D115" s="44"/>
+      <c r="C115" s="38"/>
+      <c r="D115" s="39"/>
       <c r="E115" s="6" t="s">
         <v>90</v>
       </c>
@@ -7724,7 +7724,7 @@
       <c r="D118" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="E118" s="44" t="s">
+      <c r="E118" s="39" t="s">
         <v>96</v>
       </c>
       <c r="F118" s="1"/>
@@ -7736,7 +7736,7 @@
       <c r="D119" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="E119" s="44"/>
+      <c r="E119" s="39"/>
       <c r="F119" s="1"/>
     </row>
     <row r="120" spans="3:6" x14ac:dyDescent="0.4">
@@ -7746,7 +7746,7 @@
       <c r="D120" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E120" s="44"/>
+      <c r="E120" s="39"/>
       <c r="F120" s="1"/>
     </row>
     <row r="121" spans="3:6" ht="46.8" x14ac:dyDescent="0.4">
@@ -7857,7 +7857,7 @@
       </c>
       <c r="F129" s="1"/>
     </row>
-    <row r="130" spans="3:6" ht="62.4" x14ac:dyDescent="0.4">
+    <row r="130" spans="3:6" ht="78" x14ac:dyDescent="0.4">
       <c r="C130" s="16">
         <v>-304</v>
       </c>
@@ -7905,7 +7905,7 @@
       </c>
       <c r="F133" s="1"/>
     </row>
-    <row r="134" spans="3:6" ht="46.8" x14ac:dyDescent="0.4">
+    <row r="134" spans="3:6" ht="62.4" x14ac:dyDescent="0.4">
       <c r="C134" s="16">
         <v>-311</v>
       </c>
@@ -7941,7 +7941,7 @@
       </c>
       <c r="F136" s="1"/>
     </row>
-    <row r="137" spans="3:6" ht="46.8" x14ac:dyDescent="0.4">
+    <row r="137" spans="3:6" ht="62.4" x14ac:dyDescent="0.4">
       <c r="C137" s="16">
         <v>-315</v>
       </c>
@@ -7977,7 +7977,7 @@
       </c>
       <c r="F139" s="1"/>
     </row>
-    <row r="140" spans="3:6" ht="31.2" x14ac:dyDescent="0.4">
+    <row r="140" spans="3:6" ht="46.8" x14ac:dyDescent="0.4">
       <c r="C140" s="16">
         <v>-318</v>
       </c>
@@ -8061,7 +8061,7 @@
       </c>
       <c r="F146" s="1"/>
     </row>
-    <row r="147" spans="3:6" ht="62.4" x14ac:dyDescent="0.4">
+    <row r="147" spans="3:6" ht="78" x14ac:dyDescent="0.4">
       <c r="C147" s="16">
         <v>-325</v>
       </c>
@@ -8301,7 +8301,7 @@
       </c>
       <c r="F166" s="1"/>
     </row>
-    <row r="167" spans="3:6" ht="62.4" x14ac:dyDescent="0.4">
+    <row r="167" spans="3:6" ht="78" x14ac:dyDescent="0.4">
       <c r="C167" s="16">
         <v>-518</v>
       </c>
@@ -8517,7 +8517,7 @@
       </c>
       <c r="F184" s="1"/>
     </row>
-    <row r="185" spans="3:6" ht="109.2" x14ac:dyDescent="0.4">
+    <row r="185" spans="3:6" ht="124.8" x14ac:dyDescent="0.4">
       <c r="C185" s="16">
         <v>-711</v>
       </c>
@@ -8779,7 +8779,7 @@
       <c r="E208" s="8"/>
       <c r="F208" s="1"/>
     </row>
-    <row r="209" spans="3:6" ht="62.4" x14ac:dyDescent="0.4">
+    <row r="209" spans="3:6" ht="78" x14ac:dyDescent="0.4">
       <c r="C209" s="16">
         <v>-735</v>
       </c>
@@ -8955,7 +8955,7 @@
       <c r="E225" s="8"/>
       <c r="F225" s="1"/>
     </row>
-    <row r="226" spans="3:6" ht="109.2" x14ac:dyDescent="0.4">
+    <row r="226" spans="3:6" ht="124.8" x14ac:dyDescent="0.4">
       <c r="C226" s="16">
         <v>-752</v>
       </c>
@@ -9189,7 +9189,7 @@
       <c r="E247" s="8"/>
       <c r="F247" s="1"/>
     </row>
-    <row r="248" spans="3:6" ht="31.2" x14ac:dyDescent="0.4">
+    <row r="248" spans="3:6" ht="46.8" x14ac:dyDescent="0.4">
       <c r="C248" s="16">
         <v>-774</v>
       </c>
@@ -9214,10 +9214,10 @@
       <c r="F249" s="1"/>
     </row>
     <row r="250" spans="3:6" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="C250" s="43">
+      <c r="C250" s="38">
         <v>-776</v>
       </c>
-      <c r="D250" s="44" t="s">
+      <c r="D250" s="39" t="s">
         <v>310</v>
       </c>
       <c r="E250" s="6" t="s">
@@ -9226,14 +9226,14 @@
       <c r="F250" s="1"/>
     </row>
     <row r="251" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C251" s="43"/>
-      <c r="D251" s="44"/>
+      <c r="C251" s="38"/>
+      <c r="D251" s="39"/>
       <c r="E251" s="7"/>
       <c r="F251" s="1"/>
     </row>
     <row r="252" spans="3:6" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="C252" s="43"/>
-      <c r="D252" s="44"/>
+      <c r="C252" s="38"/>
+      <c r="D252" s="39"/>
       <c r="E252" s="6" t="s">
         <v>312</v>
       </c>
@@ -9630,21 +9630,21 @@
       <c r="F285" s="1"/>
     </row>
     <row r="286" spans="3:6" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C286" s="43">
+      <c r="C286" s="38">
         <v>-811</v>
       </c>
-      <c r="D286" s="44" t="s">
+      <c r="D286" s="39" t="s">
         <v>375</v>
       </c>
-      <c r="E286" s="44" t="s">
+      <c r="E286" s="39" t="s">
         <v>376</v>
       </c>
       <c r="F286" s="1"/>
     </row>
     <row r="287" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C287" s="43"/>
-      <c r="D287" s="44"/>
-      <c r="E287" s="44"/>
+      <c r="C287" s="38"/>
+      <c r="D287" s="39"/>
+      <c r="E287" s="39"/>
       <c r="F287" s="1"/>
     </row>
     <row r="288" spans="3:6" ht="46.8" x14ac:dyDescent="0.4">
@@ -9684,10 +9684,10 @@
       <c r="F290" s="1"/>
     </row>
     <row r="291" spans="3:6" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="C291" s="43">
+      <c r="C291" s="38">
         <v>-1002</v>
       </c>
-      <c r="D291" s="44" t="s">
+      <c r="D291" s="39" t="s">
         <v>383</v>
       </c>
       <c r="E291" s="6" t="s">
@@ -9696,24 +9696,24 @@
       <c r="F291" s="1"/>
     </row>
     <row r="292" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C292" s="43"/>
-      <c r="D292" s="44"/>
+      <c r="C292" s="38"/>
+      <c r="D292" s="39"/>
       <c r="E292" s="6"/>
       <c r="F292" s="1"/>
     </row>
     <row r="293" spans="3:6" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C293" s="43"/>
-      <c r="D293" s="44"/>
+      <c r="C293" s="38"/>
+      <c r="D293" s="39"/>
       <c r="E293" s="3" t="s">
         <v>385</v>
       </c>
       <c r="F293" s="1"/>
     </row>
     <row r="294" spans="3:6" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C294" s="43">
+      <c r="C294" s="38">
         <v>-1003</v>
       </c>
-      <c r="D294" s="44" t="s">
+      <c r="D294" s="39" t="s">
         <v>386</v>
       </c>
       <c r="E294" s="6" t="s">
@@ -9722,14 +9722,14 @@
       <c r="F294" s="1"/>
     </row>
     <row r="295" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C295" s="43"/>
-      <c r="D295" s="44"/>
+      <c r="C295" s="38"/>
+      <c r="D295" s="39"/>
       <c r="E295" s="6"/>
       <c r="F295" s="1"/>
     </row>
     <row r="296" spans="3:6" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C296" s="43"/>
-      <c r="D296" s="44"/>
+      <c r="C296" s="38"/>
+      <c r="D296" s="39"/>
       <c r="E296" s="3" t="s">
         <v>388</v>
       </c>
@@ -9748,10 +9748,10 @@
       <c r="F297" s="1"/>
     </row>
     <row r="298" spans="3:6" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C298" s="43">
+      <c r="C298" s="38">
         <v>-1005</v>
       </c>
-      <c r="D298" s="44" t="s">
+      <c r="D298" s="39" t="s">
         <v>391</v>
       </c>
       <c r="E298" s="6" t="s">
@@ -9760,24 +9760,24 @@
       <c r="F298" s="1"/>
     </row>
     <row r="299" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C299" s="43"/>
-      <c r="D299" s="44"/>
+      <c r="C299" s="38"/>
+      <c r="D299" s="39"/>
       <c r="E299" s="6"/>
       <c r="F299" s="1"/>
     </row>
     <row r="300" spans="3:6" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C300" s="43"/>
-      <c r="D300" s="44"/>
+      <c r="C300" s="38"/>
+      <c r="D300" s="39"/>
       <c r="E300" s="3" t="s">
         <v>393</v>
       </c>
       <c r="F300" s="1"/>
     </row>
     <row r="301" spans="3:6" ht="78" x14ac:dyDescent="0.4">
-      <c r="C301" s="43">
+      <c r="C301" s="38">
         <v>-1006</v>
       </c>
-      <c r="D301" s="44" t="s">
+      <c r="D301" s="39" t="s">
         <v>394</v>
       </c>
       <c r="E301" s="6" t="s">
@@ -9786,40 +9786,40 @@
       <c r="F301" s="1"/>
     </row>
     <row r="302" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C302" s="43"/>
-      <c r="D302" s="44"/>
+      <c r="C302" s="38"/>
+      <c r="D302" s="39"/>
       <c r="E302" s="6"/>
       <c r="F302" s="1"/>
     </row>
     <row r="303" spans="3:6" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C303" s="43"/>
-      <c r="D303" s="44"/>
+      <c r="C303" s="38"/>
+      <c r="D303" s="39"/>
       <c r="E303" s="3" t="s">
         <v>396</v>
       </c>
       <c r="F303" s="1"/>
     </row>
     <row r="304" spans="3:6" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C304" s="43"/>
-      <c r="D304" s="44"/>
+      <c r="C304" s="38"/>
+      <c r="D304" s="39"/>
       <c r="E304" s="3" t="s">
         <v>397</v>
       </c>
       <c r="F304" s="1"/>
     </row>
     <row r="305" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C305" s="43"/>
-      <c r="D305" s="44"/>
+      <c r="C305" s="38"/>
+      <c r="D305" s="39"/>
       <c r="E305" s="3" t="s">
         <v>398</v>
       </c>
       <c r="F305" s="1"/>
     </row>
     <row r="306" spans="3:6" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="C306" s="43">
+      <c r="C306" s="38">
         <v>-1007</v>
       </c>
-      <c r="D306" s="44" t="s">
+      <c r="D306" s="39" t="s">
         <v>399</v>
       </c>
       <c r="E306" s="9" t="s">
@@ -9828,46 +9828,46 @@
       <c r="F306" s="1"/>
     </row>
     <row r="307" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C307" s="43"/>
-      <c r="D307" s="44"/>
+      <c r="C307" s="38"/>
+      <c r="D307" s="39"/>
       <c r="E307" s="10"/>
       <c r="F307" s="1"/>
     </row>
     <row r="308" spans="3:6" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="C308" s="43"/>
-      <c r="D308" s="44"/>
+      <c r="C308" s="38"/>
+      <c r="D308" s="39"/>
       <c r="E308" s="9" t="s">
         <v>401</v>
       </c>
       <c r="F308" s="1"/>
     </row>
     <row r="309" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C309" s="43"/>
-      <c r="D309" s="44"/>
+      <c r="C309" s="38"/>
+      <c r="D309" s="39"/>
       <c r="E309" s="9"/>
       <c r="F309" s="1"/>
     </row>
     <row r="310" spans="3:6" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C310" s="43"/>
-      <c r="D310" s="44"/>
+      <c r="C310" s="38"/>
+      <c r="D310" s="39"/>
       <c r="E310" s="3" t="s">
         <v>402</v>
       </c>
       <c r="F310" s="1"/>
     </row>
     <row r="311" spans="3:6" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C311" s="43"/>
-      <c r="D311" s="44"/>
+      <c r="C311" s="38"/>
+      <c r="D311" s="39"/>
       <c r="E311" s="3" t="s">
         <v>403</v>
       </c>
       <c r="F311" s="1"/>
     </row>
     <row r="312" spans="3:6" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="C312" s="43">
+      <c r="C312" s="38">
         <v>-1008</v>
       </c>
-      <c r="D312" s="44" t="s">
+      <c r="D312" s="39" t="s">
         <v>404</v>
       </c>
       <c r="E312" s="6" t="s">
@@ -9876,24 +9876,24 @@
       <c r="F312" s="1"/>
     </row>
     <row r="313" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C313" s="43"/>
-      <c r="D313" s="44"/>
+      <c r="C313" s="38"/>
+      <c r="D313" s="39"/>
       <c r="E313" s="6"/>
       <c r="F313" s="1"/>
     </row>
     <row r="314" spans="3:6" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C314" s="43"/>
-      <c r="D314" s="44"/>
+      <c r="C314" s="38"/>
+      <c r="D314" s="39"/>
       <c r="E314" s="3" t="s">
         <v>406</v>
       </c>
       <c r="F314" s="1"/>
     </row>
     <row r="315" spans="3:6" ht="78" x14ac:dyDescent="0.4">
-      <c r="C315" s="43">
+      <c r="C315" s="38">
         <v>-1009</v>
       </c>
-      <c r="D315" s="44" t="s">
+      <c r="D315" s="39" t="s">
         <v>407</v>
       </c>
       <c r="E315" s="6" t="s">
@@ -9902,24 +9902,24 @@
       <c r="F315" s="1"/>
     </row>
     <row r="316" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C316" s="43"/>
-      <c r="D316" s="44"/>
+      <c r="C316" s="38"/>
+      <c r="D316" s="39"/>
       <c r="E316" s="6"/>
       <c r="F316" s="1"/>
     </row>
     <row r="317" spans="3:6" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C317" s="43"/>
-      <c r="D317" s="44"/>
+      <c r="C317" s="38"/>
+      <c r="D317" s="39"/>
       <c r="E317" s="3" t="s">
         <v>409</v>
       </c>
       <c r="F317" s="1"/>
     </row>
     <row r="318" spans="3:6" ht="78" x14ac:dyDescent="0.4">
-      <c r="C318" s="43">
+      <c r="C318" s="38">
         <v>-1010</v>
       </c>
-      <c r="D318" s="44" t="s">
+      <c r="D318" s="39" t="s">
         <v>410</v>
       </c>
       <c r="E318" s="6" t="s">
@@ -9928,24 +9928,24 @@
       <c r="F318" s="1"/>
     </row>
     <row r="319" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C319" s="43"/>
-      <c r="D319" s="44"/>
+      <c r="C319" s="38"/>
+      <c r="D319" s="39"/>
       <c r="E319" s="6"/>
       <c r="F319" s="1"/>
     </row>
     <row r="320" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C320" s="43"/>
-      <c r="D320" s="44"/>
+      <c r="C320" s="38"/>
+      <c r="D320" s="39"/>
       <c r="E320" s="3" t="s">
         <v>412</v>
       </c>
       <c r="F320" s="1"/>
     </row>
     <row r="321" spans="3:6" ht="187.2" x14ac:dyDescent="0.4">
-      <c r="C321" s="43">
+      <c r="C321" s="38">
         <v>-1011</v>
       </c>
-      <c r="D321" s="44" t="s">
+      <c r="D321" s="39" t="s">
         <v>413</v>
       </c>
       <c r="E321" s="6" t="s">
@@ -9954,14 +9954,14 @@
       <c r="F321" s="1"/>
     </row>
     <row r="322" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C322" s="43"/>
-      <c r="D322" s="44"/>
+      <c r="C322" s="38"/>
+      <c r="D322" s="39"/>
       <c r="E322" s="6"/>
       <c r="F322" s="1"/>
     </row>
     <row r="323" spans="3:6" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C323" s="43"/>
-      <c r="D323" s="44"/>
+      <c r="C323" s="38"/>
+      <c r="D323" s="39"/>
       <c r="E323" s="3" t="s">
         <v>415</v>
       </c>
@@ -9980,10 +9980,10 @@
       <c r="F324" s="1"/>
     </row>
     <row r="325" spans="3:6" ht="140.4" x14ac:dyDescent="0.4">
-      <c r="C325" s="43">
+      <c r="C325" s="38">
         <v>-1013</v>
       </c>
-      <c r="D325" s="44" t="s">
+      <c r="D325" s="39" t="s">
         <v>417</v>
       </c>
       <c r="E325" s="6" t="s">
@@ -9992,32 +9992,32 @@
       <c r="F325" s="1"/>
     </row>
     <row r="326" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C326" s="43"/>
-      <c r="D326" s="44"/>
+      <c r="C326" s="38"/>
+      <c r="D326" s="39"/>
       <c r="E326" s="6"/>
       <c r="F326" s="1"/>
     </row>
     <row r="327" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C327" s="43"/>
-      <c r="D327" s="44"/>
+      <c r="C327" s="38"/>
+      <c r="D327" s="39"/>
       <c r="E327" s="3" t="s">
         <v>419</v>
       </c>
       <c r="F327" s="1"/>
     </row>
     <row r="328" spans="3:6" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C328" s="43"/>
-      <c r="D328" s="44"/>
+      <c r="C328" s="38"/>
+      <c r="D328" s="39"/>
       <c r="E328" s="3" t="s">
         <v>420</v>
       </c>
       <c r="F328" s="1"/>
     </row>
     <row r="329" spans="3:6" ht="140.4" x14ac:dyDescent="0.4">
-      <c r="C329" s="43">
+      <c r="C329" s="38">
         <v>-1014</v>
       </c>
-      <c r="D329" s="44" t="s">
+      <c r="D329" s="39" t="s">
         <v>421</v>
       </c>
       <c r="E329" s="6" t="s">
@@ -10026,14 +10026,14 @@
       <c r="F329" s="1"/>
     </row>
     <row r="330" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C330" s="43"/>
-      <c r="D330" s="44"/>
+      <c r="C330" s="38"/>
+      <c r="D330" s="39"/>
       <c r="E330" s="6"/>
       <c r="F330" s="1"/>
     </row>
     <row r="331" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C331" s="43"/>
-      <c r="D331" s="44"/>
+      <c r="C331" s="38"/>
+      <c r="D331" s="39"/>
       <c r="E331" s="3"/>
       <c r="F331" s="1"/>
     </row>
@@ -10050,10 +10050,10 @@
       <c r="F332" s="1"/>
     </row>
     <row r="333" spans="3:6" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C333" s="43">
+      <c r="C333" s="38">
         <v>-1016</v>
       </c>
-      <c r="D333" s="44" t="s">
+      <c r="D333" s="39" t="s">
         <v>424</v>
       </c>
       <c r="E333" s="6" t="s">
@@ -10062,22 +10062,22 @@
       <c r="F333" s="1"/>
     </row>
     <row r="334" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C334" s="43"/>
-      <c r="D334" s="44"/>
+      <c r="C334" s="38"/>
+      <c r="D334" s="39"/>
       <c r="E334" s="7"/>
       <c r="F334" s="1"/>
     </row>
     <row r="335" spans="3:6" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C335" s="43"/>
-      <c r="D335" s="44"/>
+      <c r="C335" s="38"/>
+      <c r="D335" s="39"/>
       <c r="E335" s="6" t="s">
         <v>426</v>
       </c>
       <c r="F335" s="1"/>
     </row>
     <row r="336" spans="3:6" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C336" s="43"/>
-      <c r="D336" s="44"/>
+      <c r="C336" s="38"/>
+      <c r="D336" s="39"/>
       <c r="E336" s="6" t="s">
         <v>427</v>
       </c>
@@ -10108,10 +10108,10 @@
       <c r="F338" s="1"/>
     </row>
     <row r="339" spans="3:6" ht="93.6" x14ac:dyDescent="0.4">
-      <c r="C339" s="43">
+      <c r="C339" s="38">
         <v>-1019</v>
       </c>
-      <c r="D339" s="44" t="s">
+      <c r="D339" s="39" t="s">
         <v>432</v>
       </c>
       <c r="E339" s="6" t="s">
@@ -10120,24 +10120,24 @@
       <c r="F339" s="1"/>
     </row>
     <row r="340" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C340" s="43"/>
-      <c r="D340" s="44"/>
+      <c r="C340" s="38"/>
+      <c r="D340" s="39"/>
       <c r="E340" s="7"/>
       <c r="F340" s="1"/>
     </row>
     <row r="341" spans="3:6" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="C341" s="43"/>
-      <c r="D341" s="44"/>
+      <c r="C341" s="38"/>
+      <c r="D341" s="39"/>
       <c r="E341" s="6" t="s">
         <v>434</v>
       </c>
       <c r="F341" s="1"/>
     </row>
     <row r="342" spans="3:6" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C342" s="43">
+      <c r="C342" s="38">
         <v>-1020</v>
       </c>
-      <c r="D342" s="44" t="s">
+      <c r="D342" s="39" t="s">
         <v>435</v>
       </c>
       <c r="E342" s="6" t="s">
@@ -10146,38 +10146,38 @@
       <c r="F342" s="1"/>
     </row>
     <row r="343" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C343" s="43"/>
-      <c r="D343" s="44"/>
+      <c r="C343" s="38"/>
+      <c r="D343" s="39"/>
       <c r="E343" s="7"/>
       <c r="F343" s="1"/>
     </row>
     <row r="344" spans="3:6" ht="78" x14ac:dyDescent="0.4">
-      <c r="C344" s="43"/>
-      <c r="D344" s="44"/>
+      <c r="C344" s="38"/>
+      <c r="D344" s="39"/>
       <c r="E344" s="6" t="s">
         <v>437</v>
       </c>
       <c r="F344" s="1"/>
     </row>
     <row r="345" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C345" s="43"/>
-      <c r="D345" s="44"/>
+      <c r="C345" s="38"/>
+      <c r="D345" s="39"/>
       <c r="E345" s="7"/>
       <c r="F345" s="1"/>
     </row>
     <row r="346" spans="3:6" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="C346" s="43"/>
-      <c r="D346" s="44"/>
+      <c r="C346" s="38"/>
+      <c r="D346" s="39"/>
       <c r="E346" s="6" t="s">
         <v>438</v>
       </c>
       <c r="F346" s="1"/>
     </row>
     <row r="347" spans="3:6" ht="124.8" x14ac:dyDescent="0.4">
-      <c r="C347" s="43">
+      <c r="C347" s="38">
         <v>-1021</v>
       </c>
-      <c r="D347" s="44" t="s">
+      <c r="D347" s="39" t="s">
         <v>439</v>
       </c>
       <c r="E347" s="6" t="s">
@@ -10186,14 +10186,14 @@
       <c r="F347" s="1"/>
     </row>
     <row r="348" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C348" s="43"/>
-      <c r="D348" s="44"/>
+      <c r="C348" s="38"/>
+      <c r="D348" s="39"/>
       <c r="E348" s="6"/>
       <c r="F348" s="1"/>
     </row>
     <row r="349" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C349" s="43"/>
-      <c r="D349" s="44"/>
+      <c r="C349" s="38"/>
+      <c r="D349" s="39"/>
       <c r="E349" s="3"/>
       <c r="F349" s="1"/>
     </row>
@@ -10246,10 +10246,10 @@
       <c r="F353" s="1"/>
     </row>
     <row r="354" spans="3:6" ht="93.6" x14ac:dyDescent="0.4">
-      <c r="C354" s="43">
+      <c r="C354" s="38">
         <v>-1026</v>
       </c>
-      <c r="D354" s="44" t="s">
+      <c r="D354" s="39" t="s">
         <v>448</v>
       </c>
       <c r="E354" s="6" t="s">
@@ -10258,38 +10258,38 @@
       <c r="F354" s="1"/>
     </row>
     <row r="355" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C355" s="43"/>
-      <c r="D355" s="44"/>
+      <c r="C355" s="38"/>
+      <c r="D355" s="39"/>
       <c r="E355" s="7"/>
       <c r="F355" s="1"/>
     </row>
     <row r="356" spans="3:6" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C356" s="43"/>
-      <c r="D356" s="44"/>
+      <c r="C356" s="38"/>
+      <c r="D356" s="39"/>
       <c r="E356" s="6" t="s">
         <v>449</v>
       </c>
       <c r="F356" s="1"/>
     </row>
     <row r="357" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C357" s="43"/>
-      <c r="D357" s="44"/>
+      <c r="C357" s="38"/>
+      <c r="D357" s="39"/>
       <c r="E357" s="6" t="s">
         <v>450</v>
       </c>
       <c r="F357" s="1"/>
     </row>
     <row r="358" spans="3:6" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C358" s="43"/>
-      <c r="D358" s="44"/>
+      <c r="C358" s="38"/>
+      <c r="D358" s="39"/>
       <c r="E358" s="6" t="s">
         <v>451</v>
       </c>
       <c r="F358" s="1"/>
     </row>
     <row r="359" spans="3:6" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="C359" s="43"/>
-      <c r="D359" s="44"/>
+      <c r="C359" s="38"/>
+      <c r="D359" s="39"/>
       <c r="E359" s="6" t="s">
         <v>452</v>
       </c>
@@ -10308,10 +10308,10 @@
       <c r="F360" s="1"/>
     </row>
     <row r="361" spans="3:6" ht="327.60000000000002" x14ac:dyDescent="0.4">
-      <c r="C361" s="43">
+      <c r="C361" s="38">
         <v>-1028</v>
       </c>
-      <c r="D361" s="44" t="s">
+      <c r="D361" s="39" t="s">
         <v>455</v>
       </c>
       <c r="E361" s="6" t="s">
@@ -10320,54 +10320,54 @@
       <c r="F361" s="1"/>
     </row>
     <row r="362" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C362" s="43"/>
-      <c r="D362" s="44"/>
+      <c r="C362" s="38"/>
+      <c r="D362" s="39"/>
       <c r="E362" s="7"/>
       <c r="F362" s="1"/>
     </row>
     <row r="363" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C363" s="43"/>
-      <c r="D363" s="44"/>
+      <c r="C363" s="38"/>
+      <c r="D363" s="39"/>
       <c r="E363" s="6" t="s">
         <v>456</v>
       </c>
       <c r="F363" s="1"/>
     </row>
     <row r="364" spans="3:6" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C364" s="43"/>
-      <c r="D364" s="44"/>
+      <c r="C364" s="38"/>
+      <c r="D364" s="39"/>
       <c r="E364" s="6" t="s">
         <v>457</v>
       </c>
       <c r="F364" s="1"/>
     </row>
     <row r="365" spans="3:6" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C365" s="43"/>
-      <c r="D365" s="44"/>
+      <c r="C365" s="38"/>
+      <c r="D365" s="39"/>
       <c r="E365" s="6" t="s">
         <v>458</v>
       </c>
       <c r="F365" s="1"/>
     </row>
     <row r="366" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C366" s="43"/>
-      <c r="D366" s="44"/>
+      <c r="C366" s="38"/>
+      <c r="D366" s="39"/>
       <c r="E366" s="6"/>
       <c r="F366" s="1"/>
     </row>
     <row r="367" spans="3:6" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C367" s="43"/>
-      <c r="D367" s="44"/>
+      <c r="C367" s="38"/>
+      <c r="D367" s="39"/>
       <c r="E367" s="3" t="s">
         <v>921</v>
       </c>
       <c r="F367" s="1"/>
     </row>
     <row r="368" spans="3:6" ht="374.4" x14ac:dyDescent="0.4">
-      <c r="C368" s="43">
+      <c r="C368" s="38">
         <v>-1029</v>
       </c>
-      <c r="D368" s="44" t="s">
+      <c r="D368" s="39" t="s">
         <v>459</v>
       </c>
       <c r="E368" s="6" t="s">
@@ -10376,46 +10376,46 @@
       <c r="F368" s="1"/>
     </row>
     <row r="369" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C369" s="43"/>
-      <c r="D369" s="44"/>
+      <c r="C369" s="38"/>
+      <c r="D369" s="39"/>
       <c r="E369" s="7"/>
       <c r="F369" s="1"/>
     </row>
     <row r="370" spans="3:6" ht="109.2" x14ac:dyDescent="0.4">
-      <c r="C370" s="43"/>
-      <c r="D370" s="44"/>
+      <c r="C370" s="38"/>
+      <c r="D370" s="39"/>
       <c r="E370" s="6" t="s">
         <v>460</v>
       </c>
       <c r="F370" s="1"/>
     </row>
     <row r="371" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C371" s="43"/>
-      <c r="D371" s="44"/>
+      <c r="C371" s="38"/>
+      <c r="D371" s="39"/>
       <c r="E371" s="6"/>
       <c r="F371" s="1"/>
     </row>
     <row r="372" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C372" s="43"/>
-      <c r="D372" s="44"/>
+      <c r="C372" s="38"/>
+      <c r="D372" s="39"/>
       <c r="E372" s="3" t="s">
         <v>461</v>
       </c>
       <c r="F372" s="1"/>
     </row>
     <row r="373" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C373" s="43"/>
-      <c r="D373" s="44"/>
+      <c r="C373" s="38"/>
+      <c r="D373" s="39"/>
       <c r="E373" s="3" t="s">
         <v>462</v>
       </c>
       <c r="F373" s="1"/>
     </row>
     <row r="374" spans="3:6" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C374" s="43">
+      <c r="C374" s="38">
         <v>-1030</v>
       </c>
-      <c r="D374" s="44" t="s">
+      <c r="D374" s="39" t="s">
         <v>463</v>
       </c>
       <c r="E374" s="6" t="s">
@@ -10424,28 +10424,28 @@
       <c r="F374" s="1"/>
     </row>
     <row r="375" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C375" s="43"/>
-      <c r="D375" s="44"/>
+      <c r="C375" s="38"/>
+      <c r="D375" s="39"/>
       <c r="E375" s="7"/>
       <c r="F375" s="1"/>
     </row>
     <row r="376" spans="3:6" ht="109.2" x14ac:dyDescent="0.4">
-      <c r="C376" s="43"/>
-      <c r="D376" s="44"/>
+      <c r="C376" s="38"/>
+      <c r="D376" s="39"/>
       <c r="E376" s="6" t="s">
         <v>465</v>
       </c>
       <c r="F376" s="1"/>
     </row>
     <row r="377" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C377" s="43"/>
-      <c r="D377" s="44"/>
+      <c r="C377" s="38"/>
+      <c r="D377" s="39"/>
       <c r="E377" s="7"/>
       <c r="F377" s="1"/>
     </row>
     <row r="378" spans="3:6" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C378" s="43"/>
-      <c r="D378" s="44"/>
+      <c r="C378" s="38"/>
+      <c r="D378" s="39"/>
       <c r="E378" s="6" t="s">
         <v>466</v>
       </c>
@@ -10476,10 +10476,10 @@
       <c r="F380" s="1"/>
     </row>
     <row r="381" spans="3:6" ht="140.4" x14ac:dyDescent="0.4">
-      <c r="C381" s="43">
+      <c r="C381" s="38">
         <v>-1033</v>
       </c>
-      <c r="D381" s="44" t="s">
+      <c r="D381" s="39" t="s">
         <v>471</v>
       </c>
       <c r="E381" s="6" t="s">
@@ -10488,24 +10488,24 @@
       <c r="F381" s="1"/>
     </row>
     <row r="382" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C382" s="43"/>
-      <c r="D382" s="44"/>
+      <c r="C382" s="38"/>
+      <c r="D382" s="39"/>
       <c r="E382" s="6"/>
       <c r="F382" s="1"/>
     </row>
     <row r="383" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C383" s="43"/>
-      <c r="D383" s="44"/>
+      <c r="C383" s="38"/>
+      <c r="D383" s="39"/>
       <c r="E383" s="3" t="s">
         <v>473</v>
       </c>
       <c r="F383" s="1"/>
     </row>
     <row r="384" spans="3:6" ht="124.8" x14ac:dyDescent="0.4">
-      <c r="C384" s="43">
+      <c r="C384" s="38">
         <v>-1034</v>
       </c>
-      <c r="D384" s="44" t="s">
+      <c r="D384" s="39" t="s">
         <v>926</v>
       </c>
       <c r="E384" s="6" t="s">
@@ -10514,22 +10514,22 @@
       <c r="F384" s="1"/>
     </row>
     <row r="385" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C385" s="43"/>
-      <c r="D385" s="44"/>
+      <c r="C385" s="38"/>
+      <c r="D385" s="39"/>
       <c r="E385" s="6"/>
       <c r="F385" s="1"/>
     </row>
     <row r="386" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C386" s="43"/>
-      <c r="D386" s="44"/>
+      <c r="C386" s="38"/>
+      <c r="D386" s="39"/>
       <c r="E386" s="3"/>
       <c r="F386" s="1"/>
     </row>
     <row r="387" spans="3:6" ht="124.8" x14ac:dyDescent="0.4">
-      <c r="C387" s="43">
+      <c r="C387" s="38">
         <v>-1035</v>
       </c>
-      <c r="D387" s="44" t="s">
+      <c r="D387" s="39" t="s">
         <v>474</v>
       </c>
       <c r="E387" s="6" t="s">
@@ -10538,22 +10538,22 @@
       <c r="F387" s="1"/>
     </row>
     <row r="388" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C388" s="43"/>
-      <c r="D388" s="44"/>
+      <c r="C388" s="38"/>
+      <c r="D388" s="39"/>
       <c r="E388" s="6"/>
       <c r="F388" s="1"/>
     </row>
     <row r="389" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C389" s="43"/>
-      <c r="D389" s="44"/>
+      <c r="C389" s="38"/>
+      <c r="D389" s="39"/>
       <c r="E389" s="3"/>
       <c r="F389" s="1"/>
     </row>
     <row r="390" spans="3:6" ht="109.2" x14ac:dyDescent="0.4">
-      <c r="C390" s="43">
+      <c r="C390" s="38">
         <v>-1036</v>
       </c>
-      <c r="D390" s="44" t="s">
+      <c r="D390" s="39" t="s">
         <v>475</v>
       </c>
       <c r="E390" s="6" t="s">
@@ -10562,24 +10562,24 @@
       <c r="F390" s="1"/>
     </row>
     <row r="391" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C391" s="43"/>
-      <c r="D391" s="44"/>
+      <c r="C391" s="38"/>
+      <c r="D391" s="39"/>
       <c r="E391" s="6"/>
       <c r="F391" s="1"/>
     </row>
     <row r="392" spans="3:6" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C392" s="43"/>
-      <c r="D392" s="44"/>
+      <c r="C392" s="38"/>
+      <c r="D392" s="39"/>
       <c r="E392" s="3" t="s">
         <v>477</v>
       </c>
       <c r="F392" s="1"/>
     </row>
     <row r="393" spans="3:6" ht="93.6" x14ac:dyDescent="0.4">
-      <c r="C393" s="43">
+      <c r="C393" s="38">
         <v>-1037</v>
       </c>
-      <c r="D393" s="44" t="s">
+      <c r="D393" s="39" t="s">
         <v>478</v>
       </c>
       <c r="E393" s="6" t="s">
@@ -10588,24 +10588,24 @@
       <c r="F393" s="1"/>
     </row>
     <row r="394" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C394" s="43"/>
-      <c r="D394" s="44"/>
+      <c r="C394" s="38"/>
+      <c r="D394" s="39"/>
       <c r="E394" s="6"/>
       <c r="F394" s="1"/>
     </row>
     <row r="395" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C395" s="43"/>
-      <c r="D395" s="44"/>
+      <c r="C395" s="38"/>
+      <c r="D395" s="39"/>
       <c r="E395" s="3" t="s">
         <v>480</v>
       </c>
       <c r="F395" s="1"/>
     </row>
     <row r="396" spans="3:6" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="C396" s="43">
+      <c r="C396" s="38">
         <v>-1038</v>
       </c>
-      <c r="D396" s="44" t="s">
+      <c r="D396" s="39" t="s">
         <v>481</v>
       </c>
       <c r="E396" s="6" t="s">
@@ -10614,24 +10614,24 @@
       <c r="F396" s="1"/>
     </row>
     <row r="397" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C397" s="43"/>
-      <c r="D397" s="44"/>
+      <c r="C397" s="38"/>
+      <c r="D397" s="39"/>
       <c r="E397" s="6"/>
       <c r="F397" s="1"/>
     </row>
     <row r="398" spans="3:6" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C398" s="43"/>
-      <c r="D398" s="44"/>
+      <c r="C398" s="38"/>
+      <c r="D398" s="39"/>
       <c r="E398" s="3" t="s">
         <v>483</v>
       </c>
       <c r="F398" s="1"/>
     </row>
     <row r="399" spans="3:6" ht="140.4" x14ac:dyDescent="0.4">
-      <c r="C399" s="43">
+      <c r="C399" s="38">
         <v>-1039</v>
       </c>
-      <c r="D399" s="44" t="s">
+      <c r="D399" s="39" t="s">
         <v>484</v>
       </c>
       <c r="E399" s="6" t="s">
@@ -10640,24 +10640,24 @@
       <c r="F399" s="1"/>
     </row>
     <row r="400" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C400" s="43"/>
-      <c r="D400" s="44"/>
+      <c r="C400" s="38"/>
+      <c r="D400" s="39"/>
       <c r="E400" s="6"/>
       <c r="F400" s="1"/>
     </row>
     <row r="401" spans="3:6" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C401" s="43"/>
-      <c r="D401" s="44"/>
+      <c r="C401" s="38"/>
+      <c r="D401" s="39"/>
       <c r="E401" s="3" t="s">
         <v>486</v>
       </c>
       <c r="F401" s="1"/>
     </row>
     <row r="402" spans="3:6" ht="93.6" x14ac:dyDescent="0.4">
-      <c r="C402" s="43">
+      <c r="C402" s="38">
         <v>-1040</v>
       </c>
-      <c r="D402" s="44" t="s">
+      <c r="D402" s="39" t="s">
         <v>487</v>
       </c>
       <c r="E402" s="6" t="s">
@@ -10666,24 +10666,24 @@
       <c r="F402" s="1"/>
     </row>
     <row r="403" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C403" s="43"/>
-      <c r="D403" s="44"/>
+      <c r="C403" s="38"/>
+      <c r="D403" s="39"/>
       <c r="E403" s="6"/>
       <c r="F403" s="1"/>
     </row>
     <row r="404" spans="3:6" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C404" s="43"/>
-      <c r="D404" s="44"/>
+      <c r="C404" s="38"/>
+      <c r="D404" s="39"/>
       <c r="E404" s="3" t="s">
         <v>489</v>
       </c>
       <c r="F404" s="1"/>
     </row>
     <row r="405" spans="3:6" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="C405" s="43">
+      <c r="C405" s="38">
         <v>-1041</v>
       </c>
-      <c r="D405" s="44" t="s">
+      <c r="D405" s="39" t="s">
         <v>490</v>
       </c>
       <c r="E405" s="6" t="s">
@@ -10692,14 +10692,14 @@
       <c r="F405" s="1"/>
     </row>
     <row r="406" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C406" s="43"/>
-      <c r="D406" s="44"/>
+      <c r="C406" s="38"/>
+      <c r="D406" s="39"/>
       <c r="E406" s="6"/>
       <c r="F406" s="1"/>
     </row>
     <row r="407" spans="3:6" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C407" s="43"/>
-      <c r="D407" s="44"/>
+      <c r="C407" s="38"/>
+      <c r="D407" s="39"/>
       <c r="E407" s="3" t="s">
         <v>492</v>
       </c>
@@ -10718,10 +10718,10 @@
       <c r="F408" s="1"/>
     </row>
     <row r="409" spans="3:6" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C409" s="43">
+      <c r="C409" s="38">
         <v>-1043</v>
       </c>
-      <c r="D409" s="44" t="s">
+      <c r="D409" s="39" t="s">
         <v>495</v>
       </c>
       <c r="E409" s="6" t="s">
@@ -10730,28 +10730,28 @@
       <c r="F409" s="1"/>
     </row>
     <row r="410" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C410" s="43"/>
-      <c r="D410" s="44"/>
+      <c r="C410" s="38"/>
+      <c r="D410" s="39"/>
       <c r="E410" s="7"/>
       <c r="F410" s="1"/>
     </row>
     <row r="411" spans="3:6" ht="109.2" x14ac:dyDescent="0.4">
-      <c r="C411" s="43"/>
-      <c r="D411" s="44"/>
+      <c r="C411" s="38"/>
+      <c r="D411" s="39"/>
       <c r="E411" s="6" t="s">
         <v>497</v>
       </c>
       <c r="F411" s="1"/>
     </row>
     <row r="412" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C412" s="43"/>
-      <c r="D412" s="44"/>
+      <c r="C412" s="38"/>
+      <c r="D412" s="39"/>
       <c r="E412" s="7"/>
       <c r="F412" s="1"/>
     </row>
     <row r="413" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C413" s="43"/>
-      <c r="D413" s="44"/>
+      <c r="C413" s="38"/>
+      <c r="D413" s="39"/>
       <c r="E413" s="6" t="s">
         <v>498</v>
       </c>
@@ -10770,10 +10770,10 @@
       <c r="F414" s="1"/>
     </row>
     <row r="415" spans="3:6" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C415" s="43">
+      <c r="C415" s="38">
         <v>-1045</v>
       </c>
-      <c r="D415" s="44" t="s">
+      <c r="D415" s="39" t="s">
         <v>501</v>
       </c>
       <c r="E415" s="6" t="s">
@@ -10782,48 +10782,48 @@
       <c r="F415" s="1"/>
     </row>
     <row r="416" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C416" s="43"/>
-      <c r="D416" s="44"/>
+      <c r="C416" s="38"/>
+      <c r="D416" s="39"/>
       <c r="E416" s="7"/>
       <c r="F416" s="1"/>
     </row>
     <row r="417" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C417" s="43"/>
-      <c r="D417" s="44"/>
+      <c r="C417" s="38"/>
+      <c r="D417" s="39"/>
       <c r="E417" s="6" t="s">
         <v>503</v>
       </c>
       <c r="F417" s="1"/>
     </row>
     <row r="418" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C418" s="43"/>
-      <c r="D418" s="44"/>
+      <c r="C418" s="38"/>
+      <c r="D418" s="39"/>
       <c r="E418" s="6" t="s">
         <v>504</v>
       </c>
       <c r="F418" s="1"/>
     </row>
     <row r="419" spans="3:6" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C419" s="43"/>
-      <c r="D419" s="44"/>
+      <c r="C419" s="38"/>
+      <c r="D419" s="39"/>
       <c r="E419" s="6" t="s">
         <v>505</v>
       </c>
       <c r="F419" s="1"/>
     </row>
     <row r="420" spans="3:6" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C420" s="43"/>
-      <c r="D420" s="44"/>
+      <c r="C420" s="38"/>
+      <c r="D420" s="39"/>
       <c r="E420" s="6" t="s">
         <v>506</v>
       </c>
       <c r="F420" s="1"/>
     </row>
     <row r="421" spans="3:6" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C421" s="43">
+      <c r="C421" s="38">
         <v>-1046</v>
       </c>
-      <c r="D421" s="44" t="s">
+      <c r="D421" s="39" t="s">
         <v>507</v>
       </c>
       <c r="E421" s="6" t="s">
@@ -10832,14 +10832,14 @@
       <c r="F421" s="1"/>
     </row>
     <row r="422" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C422" s="43"/>
-      <c r="D422" s="44"/>
+      <c r="C422" s="38"/>
+      <c r="D422" s="39"/>
       <c r="E422" s="6"/>
       <c r="F422" s="1"/>
     </row>
     <row r="423" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C423" s="43"/>
-      <c r="D423" s="44"/>
+      <c r="C423" s="38"/>
+      <c r="D423" s="39"/>
       <c r="E423" s="3" t="s">
         <v>509</v>
       </c>
@@ -10894,10 +10894,10 @@
       <c r="F427" s="1"/>
     </row>
     <row r="428" spans="3:6" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C428" s="43">
+      <c r="C428" s="38">
         <v>-1051</v>
       </c>
-      <c r="D428" s="44" t="s">
+      <c r="D428" s="39" t="s">
         <v>518</v>
       </c>
       <c r="E428" s="6" t="s">
@@ -10906,32 +10906,32 @@
       <c r="F428" s="1"/>
     </row>
     <row r="429" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C429" s="43"/>
-      <c r="D429" s="44"/>
+      <c r="C429" s="38"/>
+      <c r="D429" s="39"/>
       <c r="E429" s="7"/>
       <c r="F429" s="1"/>
     </row>
     <row r="430" spans="3:6" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C430" s="43"/>
-      <c r="D430" s="44"/>
+      <c r="C430" s="38"/>
+      <c r="D430" s="39"/>
       <c r="E430" s="6" t="s">
         <v>520</v>
       </c>
       <c r="F430" s="1"/>
     </row>
     <row r="431" spans="3:6" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C431" s="43"/>
-      <c r="D431" s="44"/>
+      <c r="C431" s="38"/>
+      <c r="D431" s="39"/>
       <c r="E431" s="6" t="s">
         <v>521</v>
       </c>
       <c r="F431" s="1"/>
     </row>
     <row r="432" spans="3:6" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C432" s="43">
+      <c r="C432" s="38">
         <v>-1052</v>
       </c>
-      <c r="D432" s="44" t="s">
+      <c r="D432" s="39" t="s">
         <v>522</v>
       </c>
       <c r="E432" s="6" t="s">
@@ -10940,24 +10940,24 @@
       <c r="F432" s="1"/>
     </row>
     <row r="433" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C433" s="43"/>
-      <c r="D433" s="44"/>
+      <c r="C433" s="38"/>
+      <c r="D433" s="39"/>
       <c r="E433" s="7"/>
       <c r="F433" s="1"/>
     </row>
     <row r="434" spans="3:6" ht="78" x14ac:dyDescent="0.4">
-      <c r="C434" s="43"/>
-      <c r="D434" s="44"/>
+      <c r="C434" s="38"/>
+      <c r="D434" s="39"/>
       <c r="E434" s="6" t="s">
         <v>524</v>
       </c>
       <c r="F434" s="1"/>
     </row>
     <row r="435" spans="3:6" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C435" s="43">
+      <c r="C435" s="38">
         <v>-1053</v>
       </c>
-      <c r="D435" s="44" t="s">
+      <c r="D435" s="39" t="s">
         <v>525</v>
       </c>
       <c r="E435" s="6" t="s">
@@ -10966,14 +10966,14 @@
       <c r="F435" s="1"/>
     </row>
     <row r="436" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C436" s="43"/>
-      <c r="D436" s="44"/>
+      <c r="C436" s="38"/>
+      <c r="D436" s="39"/>
       <c r="E436" s="7"/>
       <c r="F436" s="1"/>
     </row>
     <row r="437" spans="3:6" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C437" s="43"/>
-      <c r="D437" s="44"/>
+      <c r="C437" s="38"/>
+      <c r="D437" s="39"/>
       <c r="E437" s="6" t="s">
         <v>527</v>
       </c>
@@ -10992,10 +10992,10 @@
       <c r="F438" s="1"/>
     </row>
     <row r="439" spans="3:6" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C439" s="43">
+      <c r="C439" s="38">
         <v>-1055</v>
       </c>
-      <c r="D439" s="44" t="s">
+      <c r="D439" s="39" t="s">
         <v>530</v>
       </c>
       <c r="E439" s="6" t="s">
@@ -11004,32 +11004,32 @@
       <c r="F439" s="1"/>
     </row>
     <row r="440" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C440" s="43"/>
-      <c r="D440" s="44"/>
+      <c r="C440" s="38"/>
+      <c r="D440" s="39"/>
       <c r="E440" s="7"/>
       <c r="F440" s="1"/>
     </row>
     <row r="441" spans="3:6" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C441" s="43"/>
-      <c r="D441" s="44"/>
+      <c r="C441" s="38"/>
+      <c r="D441" s="39"/>
       <c r="E441" s="6" t="s">
         <v>532</v>
       </c>
       <c r="F441" s="1"/>
     </row>
     <row r="442" spans="3:6" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C442" s="43"/>
-      <c r="D442" s="44"/>
+      <c r="C442" s="38"/>
+      <c r="D442" s="39"/>
       <c r="E442" s="6" t="s">
         <v>533</v>
       </c>
       <c r="F442" s="1"/>
     </row>
     <row r="443" spans="3:6" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C443" s="43">
+      <c r="C443" s="38">
         <v>-1056</v>
       </c>
-      <c r="D443" s="44" t="s">
+      <c r="D443" s="39" t="s">
         <v>534</v>
       </c>
       <c r="E443" s="6" t="s">
@@ -11038,14 +11038,14 @@
       <c r="F443" s="1"/>
     </row>
     <row r="444" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C444" s="43"/>
-      <c r="D444" s="44"/>
+      <c r="C444" s="38"/>
+      <c r="D444" s="39"/>
       <c r="E444" s="7"/>
       <c r="F444" s="1"/>
     </row>
     <row r="445" spans="3:6" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C445" s="43"/>
-      <c r="D445" s="44"/>
+      <c r="C445" s="38"/>
+      <c r="D445" s="39"/>
       <c r="E445" s="6" t="s">
         <v>536</v>
       </c>
@@ -11438,10 +11438,10 @@
       <c r="F478" s="1"/>
     </row>
     <row r="479" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C479" s="43">
+      <c r="C479" s="38">
         <v>-1600</v>
       </c>
-      <c r="D479" s="44" t="s">
+      <c r="D479" s="39" t="s">
         <v>597</v>
       </c>
       <c r="E479" s="6" t="s">
@@ -11450,16 +11450,16 @@
       <c r="F479" s="1"/>
     </row>
     <row r="480" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C480" s="43"/>
-      <c r="D480" s="44"/>
+      <c r="C480" s="38"/>
+      <c r="D480" s="39"/>
       <c r="E480" s="6" t="s">
         <v>599</v>
       </c>
       <c r="F480" s="1"/>
     </row>
     <row r="481" spans="3:6" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C481" s="43"/>
-      <c r="D481" s="44"/>
+      <c r="C481" s="38"/>
+      <c r="D481" s="39"/>
       <c r="E481" s="6" t="s">
         <v>600</v>
       </c>
@@ -11562,10 +11562,10 @@
       <c r="F489" s="1"/>
     </row>
     <row r="490" spans="3:6" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="C490" s="43">
+      <c r="C490" s="38">
         <v>-1610</v>
       </c>
-      <c r="D490" s="44" t="s">
+      <c r="D490" s="39" t="s">
         <v>615</v>
       </c>
       <c r="E490" s="6" t="s">
@@ -11574,42 +11574,42 @@
       <c r="F490" s="1"/>
     </row>
     <row r="491" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C491" s="43"/>
-      <c r="D491" s="44"/>
+      <c r="C491" s="38"/>
+      <c r="D491" s="39"/>
       <c r="E491" s="7"/>
       <c r="F491" s="1"/>
     </row>
     <row r="492" spans="3:6" ht="140.4" x14ac:dyDescent="0.4">
-      <c r="C492" s="43"/>
-      <c r="D492" s="44"/>
+      <c r="C492" s="38"/>
+      <c r="D492" s="39"/>
       <c r="E492" s="6" t="s">
         <v>617</v>
       </c>
       <c r="F492" s="1"/>
     </row>
     <row r="493" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C493" s="43"/>
-      <c r="D493" s="44"/>
+      <c r="C493" s="38"/>
+      <c r="D493" s="39"/>
       <c r="E493" s="7"/>
       <c r="F493" s="1"/>
     </row>
     <row r="494" spans="3:6" ht="78" x14ac:dyDescent="0.4">
-      <c r="C494" s="43"/>
-      <c r="D494" s="44"/>
+      <c r="C494" s="38"/>
+      <c r="D494" s="39"/>
       <c r="E494" s="6" t="s">
         <v>618</v>
       </c>
       <c r="F494" s="1"/>
     </row>
     <row r="495" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C495" s="43"/>
-      <c r="D495" s="44"/>
+      <c r="C495" s="38"/>
+      <c r="D495" s="39"/>
       <c r="E495" s="7"/>
       <c r="F495" s="1"/>
     </row>
     <row r="496" spans="3:6" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C496" s="43"/>
-      <c r="D496" s="44"/>
+      <c r="C496" s="38"/>
+      <c r="D496" s="39"/>
       <c r="E496" s="6" t="s">
         <v>619</v>
       </c>
@@ -12032,10 +12032,10 @@
       <c r="F533" s="1"/>
     </row>
     <row r="534" spans="3:6" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C534" s="43">
+      <c r="C534" s="38">
         <v>-3014</v>
       </c>
-      <c r="D534" s="44" t="s">
+      <c r="D534" s="39" t="s">
         <v>675</v>
       </c>
       <c r="E534" s="6" t="s">
@@ -12044,24 +12044,24 @@
       <c r="F534" s="1"/>
     </row>
     <row r="535" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C535" s="43"/>
-      <c r="D535" s="44"/>
+      <c r="C535" s="38"/>
+      <c r="D535" s="39"/>
       <c r="E535" s="7"/>
       <c r="F535" s="1"/>
     </row>
     <row r="536" spans="3:6" ht="78" x14ac:dyDescent="0.4">
-      <c r="C536" s="43"/>
-      <c r="D536" s="44"/>
+      <c r="C536" s="38"/>
+      <c r="D536" s="39"/>
       <c r="E536" s="6" t="s">
         <v>677</v>
       </c>
       <c r="F536" s="1"/>
     </row>
     <row r="537" spans="3:6" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="C537" s="43">
+      <c r="C537" s="38">
         <v>-3015</v>
       </c>
-      <c r="D537" s="44" t="s">
+      <c r="D537" s="39" t="s">
         <v>678</v>
       </c>
       <c r="E537" s="6" t="s">
@@ -12070,14 +12070,14 @@
       <c r="F537" s="1"/>
     </row>
     <row r="538" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C538" s="43"/>
-      <c r="D538" s="44"/>
+      <c r="C538" s="38"/>
+      <c r="D538" s="39"/>
       <c r="E538" s="7"/>
       <c r="F538" s="1"/>
     </row>
     <row r="539" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C539" s="43"/>
-      <c r="D539" s="44"/>
+      <c r="C539" s="38"/>
+      <c r="D539" s="39"/>
       <c r="E539" s="6" t="s">
         <v>680</v>
       </c>
@@ -12156,10 +12156,10 @@
       <c r="F545" s="1"/>
     </row>
     <row r="546" spans="3:6" ht="249.6" x14ac:dyDescent="0.4">
-      <c r="C546" s="43">
+      <c r="C546" s="38">
         <v>-3104</v>
       </c>
-      <c r="D546" s="44" t="s">
+      <c r="D546" s="39" t="s">
         <v>692</v>
       </c>
       <c r="E546" s="6" t="s">
@@ -12168,66 +12168,66 @@
       <c r="F546" s="1"/>
     </row>
     <row r="547" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C547" s="43"/>
-      <c r="D547" s="44"/>
+      <c r="C547" s="38"/>
+      <c r="D547" s="39"/>
       <c r="E547" s="7"/>
       <c r="F547" s="1"/>
     </row>
     <row r="548" spans="3:6" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="C548" s="43"/>
-      <c r="D548" s="44"/>
+      <c r="C548" s="38"/>
+      <c r="D548" s="39"/>
       <c r="E548" s="6" t="s">
         <v>693</v>
       </c>
       <c r="F548" s="1"/>
     </row>
     <row r="549" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C549" s="43"/>
-      <c r="D549" s="44"/>
+      <c r="C549" s="38"/>
+      <c r="D549" s="39"/>
       <c r="E549" s="7"/>
       <c r="F549" s="1"/>
     </row>
     <row r="550" spans="3:6" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="C550" s="43"/>
-      <c r="D550" s="44"/>
+      <c r="C550" s="38"/>
+      <c r="D550" s="39"/>
       <c r="E550" s="6" t="s">
         <v>694</v>
       </c>
       <c r="F550" s="1"/>
     </row>
     <row r="551" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C551" s="43"/>
-      <c r="D551" s="44"/>
+      <c r="C551" s="38"/>
+      <c r="D551" s="39"/>
       <c r="E551" s="7"/>
       <c r="F551" s="1"/>
     </row>
     <row r="552" spans="3:6" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C552" s="43"/>
-      <c r="D552" s="44"/>
+      <c r="C552" s="38"/>
+      <c r="D552" s="39"/>
       <c r="E552" s="6" t="s">
         <v>695</v>
       </c>
       <c r="F552" s="1"/>
     </row>
     <row r="553" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C553" s="43"/>
-      <c r="D553" s="44"/>
+      <c r="C553" s="38"/>
+      <c r="D553" s="39"/>
       <c r="E553" s="6"/>
       <c r="F553" s="1"/>
     </row>
     <row r="554" spans="3:6" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="C554" s="43"/>
-      <c r="D554" s="44"/>
+      <c r="C554" s="38"/>
+      <c r="D554" s="39"/>
       <c r="E554" s="3" t="s">
         <v>696</v>
       </c>
       <c r="F554" s="1"/>
     </row>
     <row r="555" spans="3:6" ht="124.8" x14ac:dyDescent="0.4">
-      <c r="C555" s="43">
+      <c r="C555" s="38">
         <v>-3105</v>
       </c>
-      <c r="D555" s="44" t="s">
+      <c r="D555" s="39" t="s">
         <v>697</v>
       </c>
       <c r="E555" s="6" t="s">
@@ -12236,36 +12236,36 @@
       <c r="F555" s="1"/>
     </row>
     <row r="556" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C556" s="43"/>
-      <c r="D556" s="44"/>
+      <c r="C556" s="38"/>
+      <c r="D556" s="39"/>
       <c r="E556" s="7"/>
       <c r="F556" s="1"/>
     </row>
     <row r="557" spans="3:6" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C557" s="43"/>
-      <c r="D557" s="44"/>
+      <c r="C557" s="38"/>
+      <c r="D557" s="39"/>
       <c r="E557" s="6" t="s">
         <v>698</v>
       </c>
       <c r="F557" s="1"/>
     </row>
     <row r="558" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C558" s="43"/>
-      <c r="D558" s="44"/>
+      <c r="C558" s="38"/>
+      <c r="D558" s="39"/>
       <c r="E558" s="6"/>
       <c r="F558" s="1"/>
     </row>
     <row r="559" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C559" s="43"/>
-      <c r="D559" s="44"/>
+      <c r="C559" s="38"/>
+      <c r="D559" s="39"/>
       <c r="E559" s="3"/>
       <c r="F559" s="1"/>
     </row>
     <row r="560" spans="3:6" ht="312" x14ac:dyDescent="0.4">
-      <c r="C560" s="43">
+      <c r="C560" s="38">
         <v>-3106</v>
       </c>
-      <c r="D560" s="44" t="s">
+      <c r="D560" s="39" t="s">
         <v>699</v>
       </c>
       <c r="E560" s="6" t="s">
@@ -12274,152 +12274,152 @@
       <c r="F560" s="1"/>
     </row>
     <row r="561" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C561" s="43"/>
-      <c r="D561" s="44"/>
+      <c r="C561" s="38"/>
+      <c r="D561" s="39"/>
       <c r="E561" s="7"/>
       <c r="F561" s="1"/>
     </row>
     <row r="562" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C562" s="43"/>
-      <c r="D562" s="44"/>
+      <c r="C562" s="38"/>
+      <c r="D562" s="39"/>
       <c r="E562" s="6"/>
       <c r="F562" s="1"/>
     </row>
     <row r="563" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C563" s="43"/>
-      <c r="D563" s="44"/>
+      <c r="C563" s="38"/>
+      <c r="D563" s="39"/>
       <c r="E563" s="7"/>
       <c r="F563" s="1"/>
     </row>
     <row r="564" spans="3:6" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C564" s="43"/>
-      <c r="D564" s="44"/>
+      <c r="C564" s="38"/>
+      <c r="D564" s="39"/>
       <c r="E564" s="6" t="s">
         <v>700</v>
       </c>
       <c r="F564" s="1"/>
     </row>
     <row r="565" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C565" s="43"/>
-      <c r="D565" s="44"/>
+      <c r="C565" s="38"/>
+      <c r="D565" s="39"/>
       <c r="E565" s="6" t="s">
         <v>701</v>
       </c>
       <c r="F565" s="1"/>
     </row>
     <row r="566" spans="3:6" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C566" s="43"/>
-      <c r="D566" s="44"/>
+      <c r="C566" s="38"/>
+      <c r="D566" s="39"/>
       <c r="E566" s="6" t="s">
         <v>702</v>
       </c>
       <c r="F566" s="1"/>
     </row>
     <row r="567" spans="3:6" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="C567" s="43"/>
-      <c r="D567" s="44"/>
+      <c r="C567" s="38"/>
+      <c r="D567" s="39"/>
       <c r="E567" s="6" t="s">
         <v>703</v>
       </c>
       <c r="F567" s="1"/>
     </row>
     <row r="568" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C568" s="43"/>
-      <c r="D568" s="44"/>
+      <c r="C568" s="38"/>
+      <c r="D568" s="39"/>
       <c r="E568" s="6" t="s">
         <v>704</v>
       </c>
       <c r="F568" s="1"/>
     </row>
     <row r="569" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C569" s="43"/>
-      <c r="D569" s="44"/>
+      <c r="C569" s="38"/>
+      <c r="D569" s="39"/>
       <c r="E569" s="7"/>
       <c r="F569" s="1"/>
     </row>
     <row r="570" spans="3:6" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C570" s="43"/>
-      <c r="D570" s="44"/>
+      <c r="C570" s="38"/>
+      <c r="D570" s="39"/>
       <c r="E570" s="6" t="s">
         <v>705</v>
       </c>
       <c r="F570" s="1"/>
     </row>
     <row r="571" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C571" s="43"/>
-      <c r="D571" s="44"/>
+      <c r="C571" s="38"/>
+      <c r="D571" s="39"/>
       <c r="E571" s="6"/>
       <c r="F571" s="1"/>
     </row>
     <row r="572" spans="3:6" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C572" s="43"/>
-      <c r="D572" s="44"/>
+      <c r="C572" s="38"/>
+      <c r="D572" s="39"/>
       <c r="E572" s="3" t="s">
         <v>706</v>
       </c>
       <c r="F572" s="1"/>
     </row>
     <row r="573" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C573" s="43"/>
-      <c r="D573" s="44"/>
+      <c r="C573" s="38"/>
+      <c r="D573" s="39"/>
       <c r="E573" s="3" t="s">
         <v>707</v>
       </c>
       <c r="F573" s="1"/>
     </row>
     <row r="574" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C574" s="43"/>
-      <c r="D574" s="44"/>
+      <c r="C574" s="38"/>
+      <c r="D574" s="39"/>
       <c r="E574" s="3" t="s">
         <v>708</v>
       </c>
       <c r="F574" s="1"/>
     </row>
     <row r="575" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C575" s="43"/>
-      <c r="D575" s="44"/>
+      <c r="C575" s="38"/>
+      <c r="D575" s="39"/>
       <c r="E575" s="3" t="s">
         <v>709</v>
       </c>
       <c r="F575" s="1"/>
     </row>
     <row r="576" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C576" s="43"/>
-      <c r="D576" s="44"/>
+      <c r="C576" s="38"/>
+      <c r="D576" s="39"/>
       <c r="E576" s="3" t="s">
         <v>710</v>
       </c>
       <c r="F576" s="1"/>
     </row>
     <row r="577" spans="3:6" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C577" s="43"/>
-      <c r="D577" s="44"/>
+      <c r="C577" s="38"/>
+      <c r="D577" s="39"/>
       <c r="E577" s="3" t="s">
         <v>711</v>
       </c>
       <c r="F577" s="1"/>
     </row>
     <row r="578" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C578" s="43"/>
-      <c r="D578" s="44"/>
+      <c r="C578" s="38"/>
+      <c r="D578" s="39"/>
       <c r="E578" s="3" t="s">
         <v>712</v>
       </c>
       <c r="F578" s="1"/>
     </row>
     <row r="579" spans="3:6" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C579" s="43"/>
-      <c r="D579" s="44"/>
+      <c r="C579" s="38"/>
+      <c r="D579" s="39"/>
       <c r="E579" s="3" t="s">
         <v>713</v>
       </c>
       <c r="F579" s="1"/>
     </row>
     <row r="580" spans="3:6" ht="78" x14ac:dyDescent="0.4">
-      <c r="C580" s="43">
+      <c r="C580" s="38">
         <v>-3107</v>
       </c>
-      <c r="D580" s="44" t="s">
+      <c r="D580" s="39" t="s">
         <v>714</v>
       </c>
       <c r="E580" s="6" t="s">
@@ -12428,24 +12428,24 @@
       <c r="F580" s="1"/>
     </row>
     <row r="581" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C581" s="43"/>
-      <c r="D581" s="44"/>
+      <c r="C581" s="38"/>
+      <c r="D581" s="39"/>
       <c r="E581" s="6"/>
       <c r="F581" s="1"/>
     </row>
     <row r="582" spans="3:6" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C582" s="43"/>
-      <c r="D582" s="44"/>
+      <c r="C582" s="38"/>
+      <c r="D582" s="39"/>
       <c r="E582" s="3" t="s">
         <v>715</v>
       </c>
       <c r="F582" s="1"/>
     </row>
     <row r="583" spans="3:6" ht="234" x14ac:dyDescent="0.4">
-      <c r="C583" s="43">
+      <c r="C583" s="38">
         <v>-3108</v>
       </c>
-      <c r="D583" s="44" t="s">
+      <c r="D583" s="39" t="s">
         <v>716</v>
       </c>
       <c r="E583" s="6" t="s">
@@ -12454,22 +12454,22 @@
       <c r="F583" s="1"/>
     </row>
     <row r="584" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C584" s="43"/>
-      <c r="D584" s="44"/>
+      <c r="C584" s="38"/>
+      <c r="D584" s="39"/>
       <c r="E584" s="6"/>
       <c r="F584" s="1"/>
     </row>
     <row r="585" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C585" s="43"/>
-      <c r="D585" s="44"/>
+      <c r="C585" s="38"/>
+      <c r="D585" s="39"/>
       <c r="E585" s="3"/>
       <c r="F585" s="1"/>
     </row>
     <row r="586" spans="3:6" ht="409.6" x14ac:dyDescent="0.4">
-      <c r="C586" s="43">
+      <c r="C586" s="38">
         <v>-3109</v>
       </c>
-      <c r="D586" s="44" t="s">
+      <c r="D586" s="39" t="s">
         <v>717</v>
       </c>
       <c r="E586" s="6" t="s">
@@ -12478,22 +12478,22 @@
       <c r="F586" s="1"/>
     </row>
     <row r="587" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C587" s="43"/>
-      <c r="D587" s="44"/>
+      <c r="C587" s="38"/>
+      <c r="D587" s="39"/>
       <c r="E587" s="6"/>
       <c r="F587" s="1"/>
     </row>
     <row r="588" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C588" s="43"/>
-      <c r="D588" s="44"/>
+      <c r="C588" s="38"/>
+      <c r="D588" s="39"/>
       <c r="E588" s="3"/>
       <c r="F588" s="1"/>
     </row>
     <row r="589" spans="3:6" ht="409.6" x14ac:dyDescent="0.4">
-      <c r="C589" s="43">
+      <c r="C589" s="38">
         <v>-3110</v>
       </c>
-      <c r="D589" s="44" t="s">
+      <c r="D589" s="39" t="s">
         <v>718</v>
       </c>
       <c r="E589" s="6" t="s">
@@ -12502,26 +12502,26 @@
       <c r="F589" s="1"/>
     </row>
     <row r="590" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C590" s="43"/>
-      <c r="D590" s="44"/>
+      <c r="C590" s="38"/>
+      <c r="D590" s="39"/>
       <c r="E590" s="7"/>
       <c r="F590" s="1"/>
     </row>
     <row r="591" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C591" s="43"/>
-      <c r="D591" s="44"/>
+      <c r="C591" s="38"/>
+      <c r="D591" s="39"/>
       <c r="E591" s="6"/>
       <c r="F591" s="1"/>
     </row>
     <row r="592" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C592" s="43"/>
-      <c r="D592" s="44"/>
+      <c r="C592" s="38"/>
+      <c r="D592" s="39"/>
       <c r="E592" s="6"/>
       <c r="F592" s="1"/>
     </row>
     <row r="593" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C593" s="43"/>
-      <c r="D593" s="44"/>
+      <c r="C593" s="38"/>
+      <c r="D593" s="39"/>
       <c r="E593" s="3"/>
       <c r="F593" s="1"/>
     </row>
@@ -12538,10 +12538,10 @@
       <c r="F594" s="1"/>
     </row>
     <row r="595" spans="3:6" ht="78" x14ac:dyDescent="0.4">
-      <c r="C595" s="43">
+      <c r="C595" s="38">
         <v>-3112</v>
       </c>
-      <c r="D595" s="44" t="s">
+      <c r="D595" s="39" t="s">
         <v>721</v>
       </c>
       <c r="E595" s="6" t="s">
@@ -12550,24 +12550,24 @@
       <c r="F595" s="1"/>
     </row>
     <row r="596" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C596" s="43"/>
-      <c r="D596" s="44"/>
+      <c r="C596" s="38"/>
+      <c r="D596" s="39"/>
       <c r="E596" s="7"/>
       <c r="F596" s="1"/>
     </row>
     <row r="597" spans="3:6" ht="78" x14ac:dyDescent="0.4">
-      <c r="C597" s="43"/>
-      <c r="D597" s="44"/>
+      <c r="C597" s="38"/>
+      <c r="D597" s="39"/>
       <c r="E597" s="6" t="s">
         <v>723</v>
       </c>
       <c r="F597" s="1"/>
     </row>
     <row r="598" spans="3:6" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="C598" s="43">
+      <c r="C598" s="38">
         <v>-3113</v>
       </c>
-      <c r="D598" s="44" t="s">
+      <c r="D598" s="39" t="s">
         <v>724</v>
       </c>
       <c r="E598" s="6" t="s">
@@ -12576,122 +12576,122 @@
       <c r="F598" s="1"/>
     </row>
     <row r="599" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C599" s="43"/>
-      <c r="D599" s="44"/>
+      <c r="C599" s="38"/>
+      <c r="D599" s="39"/>
       <c r="E599" s="7"/>
       <c r="F599" s="1"/>
     </row>
     <row r="600" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C600" s="43"/>
-      <c r="D600" s="44"/>
+      <c r="C600" s="38"/>
+      <c r="D600" s="39"/>
       <c r="E600" s="6" t="s">
         <v>726</v>
       </c>
       <c r="F600" s="1"/>
     </row>
     <row r="601" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C601" s="43"/>
-      <c r="D601" s="44"/>
+      <c r="C601" s="38"/>
+      <c r="D601" s="39"/>
       <c r="E601" s="7"/>
       <c r="F601" s="1"/>
     </row>
     <row r="602" spans="3:6" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C602" s="43"/>
-      <c r="D602" s="44"/>
+      <c r="C602" s="38"/>
+      <c r="D602" s="39"/>
       <c r="E602" s="6" t="s">
         <v>727</v>
       </c>
       <c r="F602" s="1"/>
     </row>
     <row r="603" spans="3:6" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C603" s="43"/>
-      <c r="D603" s="44"/>
+      <c r="C603" s="38"/>
+      <c r="D603" s="39"/>
       <c r="E603" s="6" t="s">
         <v>728</v>
       </c>
       <c r="F603" s="1"/>
     </row>
     <row r="604" spans="3:6" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C604" s="43"/>
-      <c r="D604" s="44"/>
+      <c r="C604" s="38"/>
+      <c r="D604" s="39"/>
       <c r="E604" s="6" t="s">
         <v>729</v>
       </c>
       <c r="F604" s="1"/>
     </row>
     <row r="605" spans="3:6" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C605" s="43"/>
-      <c r="D605" s="44"/>
+      <c r="C605" s="38"/>
+      <c r="D605" s="39"/>
       <c r="E605" s="6" t="s">
         <v>730</v>
       </c>
       <c r="F605" s="1"/>
     </row>
     <row r="606" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C606" s="43"/>
-      <c r="D606" s="44"/>
+      <c r="C606" s="38"/>
+      <c r="D606" s="39"/>
       <c r="E606" s="6" t="s">
         <v>731</v>
       </c>
       <c r="F606" s="1"/>
     </row>
     <row r="607" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C607" s="43"/>
-      <c r="D607" s="44"/>
+      <c r="C607" s="38"/>
+      <c r="D607" s="39"/>
       <c r="E607" s="6" t="s">
         <v>732</v>
       </c>
       <c r="F607" s="1"/>
     </row>
     <row r="608" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C608" s="43"/>
-      <c r="D608" s="44"/>
+      <c r="C608" s="38"/>
+      <c r="D608" s="39"/>
       <c r="E608" s="6" t="s">
         <v>733</v>
       </c>
       <c r="F608" s="1"/>
     </row>
     <row r="609" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C609" s="43"/>
-      <c r="D609" s="44"/>
+      <c r="C609" s="38"/>
+      <c r="D609" s="39"/>
       <c r="E609" s="6" t="s">
         <v>734</v>
       </c>
       <c r="F609" s="1"/>
     </row>
     <row r="610" spans="3:6" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C610" s="43"/>
-      <c r="D610" s="44"/>
+      <c r="C610" s="38"/>
+      <c r="D610" s="39"/>
       <c r="E610" s="6" t="s">
         <v>735</v>
       </c>
       <c r="F610" s="1"/>
     </row>
     <row r="611" spans="3:6" ht="78" x14ac:dyDescent="0.4">
-      <c r="C611" s="43"/>
-      <c r="D611" s="44"/>
+      <c r="C611" s="38"/>
+      <c r="D611" s="39"/>
       <c r="E611" s="6" t="s">
         <v>736</v>
       </c>
       <c r="F611" s="1"/>
     </row>
     <row r="612" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C612" s="43"/>
-      <c r="D612" s="44"/>
+      <c r="C612" s="38"/>
+      <c r="D612" s="39"/>
       <c r="E612" s="7"/>
       <c r="F612" s="1"/>
     </row>
     <row r="613" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C613" s="43"/>
-      <c r="D613" s="44"/>
+      <c r="C613" s="38"/>
+      <c r="D613" s="39"/>
       <c r="E613" s="6" t="s">
         <v>737</v>
       </c>
       <c r="F613" s="1"/>
     </row>
     <row r="614" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C614" s="43"/>
-      <c r="D614" s="44"/>
+      <c r="C614" s="38"/>
+      <c r="D614" s="39"/>
       <c r="E614" s="6" t="s">
         <v>738</v>
       </c>
@@ -12710,10 +12710,10 @@
       <c r="F615" s="1"/>
     </row>
     <row r="616" spans="3:6" ht="140.4" x14ac:dyDescent="0.4">
-      <c r="C616" s="43">
+      <c r="C616" s="38">
         <v>-3115</v>
       </c>
-      <c r="D616" s="44" t="s">
+      <c r="D616" s="39" t="s">
         <v>741</v>
       </c>
       <c r="E616" s="6" t="s">
@@ -12722,14 +12722,14 @@
       <c r="F616" s="1"/>
     </row>
     <row r="617" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C617" s="43"/>
-      <c r="D617" s="44"/>
+      <c r="C617" s="38"/>
+      <c r="D617" s="39"/>
       <c r="E617" s="7"/>
       <c r="F617" s="1"/>
     </row>
     <row r="618" spans="3:6" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C618" s="43"/>
-      <c r="D618" s="44"/>
+      <c r="C618" s="38"/>
+      <c r="D618" s="39"/>
       <c r="E618" s="6" t="s">
         <v>743</v>
       </c>
@@ -12746,10 +12746,10 @@
       <c r="F619" s="1"/>
     </row>
     <row r="620" spans="3:6" ht="93.6" x14ac:dyDescent="0.4">
-      <c r="C620" s="43">
+      <c r="C620" s="38">
         <v>-3117</v>
       </c>
-      <c r="D620" s="44" t="s">
+      <c r="D620" s="39" t="s">
         <v>745</v>
       </c>
       <c r="E620" s="6" t="s">
@@ -12758,36 +12758,36 @@
       <c r="F620" s="1"/>
     </row>
     <row r="621" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C621" s="43"/>
-      <c r="D621" s="44"/>
+      <c r="C621" s="38"/>
+      <c r="D621" s="39"/>
       <c r="E621" s="7"/>
       <c r="F621" s="1"/>
     </row>
     <row r="622" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C622" s="43"/>
-      <c r="D622" s="44"/>
+      <c r="C622" s="38"/>
+      <c r="D622" s="39"/>
       <c r="E622" s="6" t="s">
         <v>747</v>
       </c>
       <c r="F622" s="1"/>
     </row>
     <row r="623" spans="3:6" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="C623" s="43"/>
-      <c r="D623" s="44"/>
+      <c r="C623" s="38"/>
+      <c r="D623" s="39"/>
       <c r="E623" s="6" t="s">
         <v>748</v>
       </c>
       <c r="F623" s="1"/>
     </row>
     <row r="624" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C624" s="43"/>
-      <c r="D624" s="44"/>
+      <c r="C624" s="38"/>
+      <c r="D624" s="39"/>
       <c r="E624" s="7"/>
       <c r="F624" s="1"/>
     </row>
     <row r="625" spans="3:6" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="C625" s="43"/>
-      <c r="D625" s="44"/>
+      <c r="C625" s="38"/>
+      <c r="D625" s="39"/>
       <c r="E625" s="6" t="s">
         <v>749</v>
       </c>
@@ -12818,10 +12818,10 @@
       <c r="F627" s="1"/>
     </row>
     <row r="628" spans="3:6" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C628" s="43">
+      <c r="C628" s="38">
         <v>-3120</v>
       </c>
-      <c r="D628" s="44" t="s">
+      <c r="D628" s="39" t="s">
         <v>754</v>
       </c>
       <c r="E628" s="6" t="s">
@@ -12830,56 +12830,56 @@
       <c r="F628" s="1"/>
     </row>
     <row r="629" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C629" s="43"/>
-      <c r="D629" s="44"/>
+      <c r="C629" s="38"/>
+      <c r="D629" s="39"/>
       <c r="E629" s="7"/>
       <c r="F629" s="1"/>
     </row>
     <row r="630" spans="3:6" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C630" s="43"/>
-      <c r="D630" s="44"/>
+      <c r="C630" s="38"/>
+      <c r="D630" s="39"/>
       <c r="E630" s="6" t="s">
         <v>756</v>
       </c>
       <c r="F630" s="1"/>
     </row>
     <row r="631" spans="3:6" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C631" s="43"/>
-      <c r="D631" s="44"/>
+      <c r="C631" s="38"/>
+      <c r="D631" s="39"/>
       <c r="E631" s="6" t="s">
         <v>757</v>
       </c>
       <c r="F631" s="1"/>
     </row>
     <row r="632" spans="3:6" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C632" s="43"/>
-      <c r="D632" s="44"/>
+      <c r="C632" s="38"/>
+      <c r="D632" s="39"/>
       <c r="E632" s="6" t="s">
         <v>758</v>
       </c>
       <c r="F632" s="1"/>
     </row>
     <row r="633" spans="3:6" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C633" s="43"/>
-      <c r="D633" s="44"/>
+      <c r="C633" s="38"/>
+      <c r="D633" s="39"/>
       <c r="E633" s="6" t="s">
         <v>759</v>
       </c>
       <c r="F633" s="1"/>
     </row>
     <row r="634" spans="3:6" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C634" s="43"/>
-      <c r="D634" s="44"/>
+      <c r="C634" s="38"/>
+      <c r="D634" s="39"/>
       <c r="E634" s="6" t="s">
         <v>760</v>
       </c>
       <c r="F634" s="1"/>
     </row>
     <row r="635" spans="3:6" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C635" s="43">
+      <c r="C635" s="38">
         <v>-3121</v>
       </c>
-      <c r="D635" s="44" t="s">
+      <c r="D635" s="39" t="s">
         <v>761</v>
       </c>
       <c r="E635" s="6" t="s">
@@ -12888,36 +12888,36 @@
       <c r="F635" s="1"/>
     </row>
     <row r="636" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C636" s="43"/>
-      <c r="D636" s="44"/>
+      <c r="C636" s="38"/>
+      <c r="D636" s="39"/>
       <c r="E636" s="7"/>
       <c r="F636" s="1"/>
     </row>
     <row r="637" spans="3:6" ht="78" x14ac:dyDescent="0.4">
-      <c r="C637" s="43"/>
-      <c r="D637" s="44"/>
+      <c r="C637" s="38"/>
+      <c r="D637" s="39"/>
       <c r="E637" s="6" t="s">
         <v>763</v>
       </c>
       <c r="F637" s="1"/>
     </row>
     <row r="638" spans="3:6" ht="78" x14ac:dyDescent="0.4">
-      <c r="C638" s="43"/>
-      <c r="D638" s="44"/>
+      <c r="C638" s="38"/>
+      <c r="D638" s="39"/>
       <c r="E638" s="6" t="s">
         <v>764</v>
       </c>
       <c r="F638" s="1"/>
     </row>
     <row r="639" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C639" s="43"/>
-      <c r="D639" s="44"/>
+      <c r="C639" s="38"/>
+      <c r="D639" s="39"/>
       <c r="E639" s="7"/>
       <c r="F639" s="1"/>
     </row>
     <row r="640" spans="3:6" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C640" s="43"/>
-      <c r="D640" s="44"/>
+      <c r="C640" s="38"/>
+      <c r="D640" s="39"/>
       <c r="E640" s="6" t="s">
         <v>765</v>
       </c>
@@ -12948,10 +12948,10 @@
       <c r="F642" s="1"/>
     </row>
     <row r="643" spans="3:6" ht="93.6" x14ac:dyDescent="0.4">
-      <c r="C643" s="43">
+      <c r="C643" s="38">
         <v>-3124</v>
       </c>
-      <c r="D643" s="44" t="s">
+      <c r="D643" s="39" t="s">
         <v>769</v>
       </c>
       <c r="E643" s="6" t="s">
@@ -12960,14 +12960,14 @@
       <c r="F643" s="1"/>
     </row>
     <row r="644" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C644" s="43"/>
-      <c r="D644" s="44"/>
+      <c r="C644" s="38"/>
+      <c r="D644" s="39"/>
       <c r="E644" s="7"/>
       <c r="F644" s="1"/>
     </row>
     <row r="645" spans="3:6" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C645" s="43"/>
-      <c r="D645" s="44"/>
+      <c r="C645" s="38"/>
+      <c r="D645" s="39"/>
       <c r="E645" s="6" t="s">
         <v>771</v>
       </c>
@@ -12986,10 +12986,10 @@
       <c r="F646" s="1"/>
     </row>
     <row r="647" spans="3:6" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="C647" s="43">
+      <c r="C647" s="38">
         <v>-3126</v>
       </c>
-      <c r="D647" s="44" t="s">
+      <c r="D647" s="39" t="s">
         <v>774</v>
       </c>
       <c r="E647" s="6" t="s">
@@ -12998,50 +12998,50 @@
       <c r="F647" s="1"/>
     </row>
     <row r="648" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C648" s="43"/>
-      <c r="D648" s="44"/>
+      <c r="C648" s="38"/>
+      <c r="D648" s="39"/>
       <c r="E648" s="7"/>
       <c r="F648" s="1"/>
     </row>
     <row r="649" spans="3:6" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C649" s="43"/>
-      <c r="D649" s="44"/>
+      <c r="C649" s="38"/>
+      <c r="D649" s="39"/>
       <c r="E649" s="6" t="s">
         <v>776</v>
       </c>
       <c r="F649" s="1"/>
     </row>
     <row r="650" spans="3:6" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C650" s="43"/>
-      <c r="D650" s="44"/>
+      <c r="C650" s="38"/>
+      <c r="D650" s="39"/>
       <c r="E650" s="6" t="s">
         <v>777</v>
       </c>
       <c r="F650" s="1"/>
     </row>
     <row r="651" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C651" s="43"/>
-      <c r="D651" s="44"/>
+      <c r="C651" s="38"/>
+      <c r="D651" s="39"/>
       <c r="E651" s="7"/>
       <c r="F651" s="1"/>
     </row>
     <row r="652" spans="3:6" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C652" s="43"/>
-      <c r="D652" s="44"/>
+      <c r="C652" s="38"/>
+      <c r="D652" s="39"/>
       <c r="E652" s="6" t="s">
         <v>778</v>
       </c>
       <c r="F652" s="1"/>
     </row>
     <row r="653" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C653" s="43"/>
-      <c r="D653" s="44"/>
+      <c r="C653" s="38"/>
+      <c r="D653" s="39"/>
       <c r="E653" s="7"/>
       <c r="F653" s="1"/>
     </row>
     <row r="654" spans="3:6" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C654" s="43"/>
-      <c r="D654" s="44"/>
+      <c r="C654" s="38"/>
+      <c r="D654" s="39"/>
       <c r="E654" s="6" t="s">
         <v>779</v>
       </c>
@@ -13072,10 +13072,10 @@
       <c r="F656" s="1"/>
     </row>
     <row r="657" spans="3:6" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C657" s="43">
+      <c r="C657" s="38">
         <v>-3129</v>
       </c>
-      <c r="D657" s="44" t="s">
+      <c r="D657" s="39" t="s">
         <v>782</v>
       </c>
       <c r="E657" s="6" t="s">
@@ -13084,66 +13084,66 @@
       <c r="F657" s="1"/>
     </row>
     <row r="658" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C658" s="43"/>
-      <c r="D658" s="44"/>
+      <c r="C658" s="38"/>
+      <c r="D658" s="39"/>
       <c r="E658" s="7"/>
       <c r="F658" s="1"/>
     </row>
     <row r="659" spans="3:6" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C659" s="43"/>
-      <c r="D659" s="44"/>
+      <c r="C659" s="38"/>
+      <c r="D659" s="39"/>
       <c r="E659" s="6" t="s">
         <v>784</v>
       </c>
       <c r="F659" s="1"/>
     </row>
     <row r="660" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C660" s="43"/>
-      <c r="D660" s="44"/>
+      <c r="C660" s="38"/>
+      <c r="D660" s="39"/>
       <c r="E660" s="7"/>
       <c r="F660" s="1"/>
     </row>
     <row r="661" spans="3:6" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C661" s="43"/>
-      <c r="D661" s="44"/>
+      <c r="C661" s="38"/>
+      <c r="D661" s="39"/>
       <c r="E661" s="6" t="s">
         <v>785</v>
       </c>
       <c r="F661" s="1"/>
     </row>
     <row r="662" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C662" s="43"/>
-      <c r="D662" s="44"/>
+      <c r="C662" s="38"/>
+      <c r="D662" s="39"/>
       <c r="E662" s="7"/>
       <c r="F662" s="1"/>
     </row>
     <row r="663" spans="3:6" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="C663" s="43"/>
-      <c r="D663" s="44"/>
+      <c r="C663" s="38"/>
+      <c r="D663" s="39"/>
       <c r="E663" s="6" t="s">
         <v>786</v>
       </c>
       <c r="F663" s="1"/>
     </row>
     <row r="664" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C664" s="43"/>
-      <c r="D664" s="44"/>
+      <c r="C664" s="38"/>
+      <c r="D664" s="39"/>
       <c r="E664" s="7"/>
       <c r="F664" s="1"/>
     </row>
     <row r="665" spans="3:6" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C665" s="43"/>
-      <c r="D665" s="44"/>
+      <c r="C665" s="38"/>
+      <c r="D665" s="39"/>
       <c r="E665" s="6" t="s">
         <v>787</v>
       </c>
       <c r="F665" s="1"/>
     </row>
     <row r="666" spans="3:6" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="C666" s="43">
+      <c r="C666" s="38">
         <v>-3130</v>
       </c>
-      <c r="D666" s="44" t="s">
+      <c r="D666" s="39" t="s">
         <v>788</v>
       </c>
       <c r="E666" s="6" t="s">
@@ -13152,14 +13152,14 @@
       <c r="F666" s="1"/>
     </row>
     <row r="667" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C667" s="43"/>
-      <c r="D667" s="44"/>
+      <c r="C667" s="38"/>
+      <c r="D667" s="39"/>
       <c r="E667" s="7"/>
       <c r="F667" s="1"/>
     </row>
     <row r="668" spans="3:6" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C668" s="43"/>
-      <c r="D668" s="44"/>
+      <c r="C668" s="38"/>
+      <c r="D668" s="39"/>
       <c r="E668" s="6" t="s">
         <v>790</v>
       </c>
@@ -13202,10 +13202,10 @@
       <c r="F671" s="1"/>
     </row>
     <row r="672" spans="3:6" ht="218.4" x14ac:dyDescent="0.4">
-      <c r="C672" s="43">
+      <c r="C672" s="38">
         <v>-3134</v>
       </c>
-      <c r="D672" s="44" t="s">
+      <c r="D672" s="39" t="s">
         <v>796</v>
       </c>
       <c r="E672" s="6" t="s">
@@ -13214,28 +13214,28 @@
       <c r="F672" s="1"/>
     </row>
     <row r="673" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C673" s="43"/>
-      <c r="D673" s="44"/>
+      <c r="C673" s="38"/>
+      <c r="D673" s="39"/>
       <c r="E673" s="7"/>
       <c r="F673" s="1"/>
     </row>
     <row r="674" spans="3:6" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C674" s="43"/>
-      <c r="D674" s="44"/>
+      <c r="C674" s="38"/>
+      <c r="D674" s="39"/>
       <c r="E674" s="6" t="s">
         <v>797</v>
       </c>
       <c r="F674" s="1"/>
     </row>
     <row r="675" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C675" s="43"/>
-      <c r="D675" s="44"/>
+      <c r="C675" s="38"/>
+      <c r="D675" s="39"/>
       <c r="E675" s="7"/>
       <c r="F675" s="1"/>
     </row>
     <row r="676" spans="3:6" ht="93.6" x14ac:dyDescent="0.4">
-      <c r="C676" s="43"/>
-      <c r="D676" s="44"/>
+      <c r="C676" s="38"/>
+      <c r="D676" s="39"/>
       <c r="E676" s="6" t="s">
         <v>798</v>
       </c>
@@ -13249,10 +13249,10 @@
         <v>799</v>
       </c>
       <c r="E677" s="6" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="F677" s="1" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="678" spans="3:6" ht="78" x14ac:dyDescent="0.4">
@@ -13268,10 +13268,10 @@
       <c r="F678" s="1"/>
     </row>
     <row r="679" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C679" s="43">
+      <c r="C679" s="38">
         <v>-3137</v>
       </c>
-      <c r="D679" s="44" t="s">
+      <c r="D679" s="39" t="s">
         <v>802</v>
       </c>
       <c r="E679" s="6" t="s">
@@ -13280,32 +13280,32 @@
       <c r="F679" s="1"/>
     </row>
     <row r="680" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C680" s="43"/>
-      <c r="D680" s="44"/>
+      <c r="C680" s="38"/>
+      <c r="D680" s="39"/>
       <c r="E680" s="7"/>
       <c r="F680" s="1"/>
     </row>
     <row r="681" spans="3:6" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C681" s="43"/>
-      <c r="D681" s="44"/>
+      <c r="C681" s="38"/>
+      <c r="D681" s="39"/>
       <c r="E681" s="6" t="s">
         <v>804</v>
       </c>
       <c r="F681" s="1"/>
     </row>
     <row r="682" spans="3:6" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C682" s="43"/>
-      <c r="D682" s="44"/>
+      <c r="C682" s="38"/>
+      <c r="D682" s="39"/>
       <c r="E682" s="6" t="s">
         <v>805</v>
       </c>
       <c r="F682" s="1"/>
     </row>
     <row r="683" spans="3:6" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C683" s="43">
+      <c r="C683" s="38">
         <v>-3138</v>
       </c>
-      <c r="D683" s="44" t="s">
+      <c r="D683" s="39" t="s">
         <v>806</v>
       </c>
       <c r="E683" s="6" t="s">
@@ -13314,38 +13314,38 @@
       <c r="F683" s="1"/>
     </row>
     <row r="684" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C684" s="43"/>
-      <c r="D684" s="44"/>
+      <c r="C684" s="38"/>
+      <c r="D684" s="39"/>
       <c r="E684" s="7"/>
       <c r="F684" s="1"/>
     </row>
     <row r="685" spans="3:6" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="C685" s="43"/>
-      <c r="D685" s="44"/>
+      <c r="C685" s="38"/>
+      <c r="D685" s="39"/>
       <c r="E685" s="6" t="s">
         <v>808</v>
       </c>
       <c r="F685" s="1"/>
     </row>
     <row r="686" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C686" s="43"/>
-      <c r="D686" s="44"/>
+      <c r="C686" s="38"/>
+      <c r="D686" s="39"/>
       <c r="E686" s="7"/>
       <c r="F686" s="1"/>
     </row>
     <row r="687" spans="3:6" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C687" s="43"/>
-      <c r="D687" s="44"/>
+      <c r="C687" s="38"/>
+      <c r="D687" s="39"/>
       <c r="E687" s="6" t="s">
         <v>809</v>
       </c>
       <c r="F687" s="1"/>
     </row>
     <row r="688" spans="3:6" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C688" s="43">
+      <c r="C688" s="38">
         <v>-3139</v>
       </c>
-      <c r="D688" s="44" t="s">
+      <c r="D688" s="39" t="s">
         <v>810</v>
       </c>
       <c r="E688" s="6" t="s">
@@ -13354,62 +13354,62 @@
       <c r="F688" s="1"/>
     </row>
     <row r="689" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C689" s="43"/>
-      <c r="D689" s="44"/>
+      <c r="C689" s="38"/>
+      <c r="D689" s="39"/>
       <c r="E689" s="7"/>
       <c r="F689" s="1"/>
     </row>
     <row r="690" spans="3:6" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C690" s="43"/>
-      <c r="D690" s="44"/>
+      <c r="C690" s="38"/>
+      <c r="D690" s="39"/>
       <c r="E690" s="6" t="s">
         <v>812</v>
       </c>
       <c r="F690" s="1"/>
     </row>
     <row r="691" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C691" s="43"/>
-      <c r="D691" s="44"/>
+      <c r="C691" s="38"/>
+      <c r="D691" s="39"/>
       <c r="E691" s="6" t="s">
         <v>813</v>
       </c>
       <c r="F691" s="1"/>
     </row>
     <row r="692" spans="3:6" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C692" s="43"/>
-      <c r="D692" s="44"/>
+      <c r="C692" s="38"/>
+      <c r="D692" s="39"/>
       <c r="E692" s="6" t="s">
         <v>814</v>
       </c>
       <c r="F692" s="1"/>
     </row>
     <row r="693" spans="3:6" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C693" s="43"/>
-      <c r="D693" s="44"/>
+      <c r="C693" s="38"/>
+      <c r="D693" s="39"/>
       <c r="E693" s="6" t="s">
         <v>815</v>
       </c>
       <c r="F693" s="1"/>
     </row>
     <row r="694" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C694" s="43"/>
-      <c r="D694" s="44"/>
+      <c r="C694" s="38"/>
+      <c r="D694" s="39"/>
       <c r="E694" s="7"/>
       <c r="F694" s="1"/>
     </row>
     <row r="695" spans="3:6" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C695" s="43"/>
-      <c r="D695" s="44"/>
+      <c r="C695" s="38"/>
+      <c r="D695" s="39"/>
       <c r="E695" s="6" t="s">
         <v>816</v>
       </c>
       <c r="F695" s="1"/>
     </row>
     <row r="696" spans="3:6" ht="265.2" x14ac:dyDescent="0.4">
-      <c r="C696" s="43">
+      <c r="C696" s="38">
         <v>-3140</v>
       </c>
-      <c r="D696" s="44" t="s">
+      <c r="D696" s="39" t="s">
         <v>817</v>
       </c>
       <c r="E696" s="6" t="s">
@@ -13418,34 +13418,34 @@
       <c r="F696" s="1"/>
     </row>
     <row r="697" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C697" s="43"/>
-      <c r="D697" s="44"/>
+      <c r="C697" s="38"/>
+      <c r="D697" s="39"/>
       <c r="E697" s="7"/>
       <c r="F697" s="1"/>
     </row>
     <row r="698" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C698" s="43"/>
-      <c r="D698" s="44"/>
+      <c r="C698" s="38"/>
+      <c r="D698" s="39"/>
       <c r="E698" s="6"/>
       <c r="F698" s="1"/>
     </row>
     <row r="699" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C699" s="43"/>
-      <c r="D699" s="44"/>
+      <c r="C699" s="38"/>
+      <c r="D699" s="39"/>
       <c r="E699" s="7"/>
       <c r="F699" s="1"/>
     </row>
     <row r="700" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C700" s="43"/>
-      <c r="D700" s="44"/>
+      <c r="C700" s="38"/>
+      <c r="D700" s="39"/>
       <c r="E700" s="6"/>
       <c r="F700" s="1"/>
     </row>
     <row r="701" spans="3:6" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C701" s="43">
+      <c r="C701" s="38">
         <v>-3141</v>
       </c>
-      <c r="D701" s="44" t="s">
+      <c r="D701" s="39" t="s">
         <v>818</v>
       </c>
       <c r="E701" s="6" t="s">
@@ -13454,38 +13454,38 @@
       <c r="F701" s="1"/>
     </row>
     <row r="702" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C702" s="43"/>
-      <c r="D702" s="44"/>
+      <c r="C702" s="38"/>
+      <c r="D702" s="39"/>
       <c r="E702" s="7"/>
       <c r="F702" s="1"/>
     </row>
     <row r="703" spans="3:6" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C703" s="43"/>
-      <c r="D703" s="44"/>
+      <c r="C703" s="38"/>
+      <c r="D703" s="39"/>
       <c r="E703" s="6" t="s">
         <v>820</v>
       </c>
       <c r="F703" s="1"/>
     </row>
     <row r="704" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C704" s="43"/>
-      <c r="D704" s="44"/>
+      <c r="C704" s="38"/>
+      <c r="D704" s="39"/>
       <c r="E704" s="7"/>
       <c r="F704" s="1"/>
     </row>
     <row r="705" spans="3:6" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C705" s="43"/>
-      <c r="D705" s="44"/>
+      <c r="C705" s="38"/>
+      <c r="D705" s="39"/>
       <c r="E705" s="6" t="s">
         <v>765</v>
       </c>
       <c r="F705" s="1"/>
     </row>
     <row r="706" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C706" s="43">
+      <c r="C706" s="38">
         <v>-3142</v>
       </c>
-      <c r="D706" s="44" t="s">
+      <c r="D706" s="39" t="s">
         <v>821</v>
       </c>
       <c r="E706" s="6" t="s">
@@ -13494,38 +13494,38 @@
       <c r="F706" s="1"/>
     </row>
     <row r="707" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C707" s="43"/>
-      <c r="D707" s="44"/>
+      <c r="C707" s="38"/>
+      <c r="D707" s="39"/>
       <c r="E707" s="7"/>
       <c r="F707" s="1"/>
     </row>
     <row r="708" spans="3:6" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C708" s="43"/>
-      <c r="D708" s="44"/>
+      <c r="C708" s="38"/>
+      <c r="D708" s="39"/>
       <c r="E708" s="6" t="s">
         <v>823</v>
       </c>
       <c r="F708" s="1"/>
     </row>
     <row r="709" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C709" s="43"/>
-      <c r="D709" s="44"/>
+      <c r="C709" s="38"/>
+      <c r="D709" s="39"/>
       <c r="E709" s="7"/>
       <c r="F709" s="1"/>
     </row>
     <row r="710" spans="3:6" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C710" s="43"/>
-      <c r="D710" s="44"/>
+      <c r="C710" s="38"/>
+      <c r="D710" s="39"/>
       <c r="E710" s="6" t="s">
         <v>765</v>
       </c>
       <c r="F710" s="1"/>
     </row>
     <row r="711" spans="3:6" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="C711" s="43">
+      <c r="C711" s="38">
         <v>-3143</v>
       </c>
-      <c r="D711" s="44" t="s">
+      <c r="D711" s="39" t="s">
         <v>824</v>
       </c>
       <c r="E711" s="6" t="s">
@@ -13534,42 +13534,42 @@
       <c r="F711" s="1"/>
     </row>
     <row r="712" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C712" s="43"/>
-      <c r="D712" s="44"/>
+      <c r="C712" s="38"/>
+      <c r="D712" s="39"/>
       <c r="E712" s="7"/>
       <c r="F712" s="1"/>
     </row>
     <row r="713" spans="3:6" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C713" s="43"/>
-      <c r="D713" s="44"/>
+      <c r="C713" s="38"/>
+      <c r="D713" s="39"/>
       <c r="E713" s="6" t="s">
         <v>826</v>
       </c>
       <c r="F713" s="1"/>
     </row>
     <row r="714" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C714" s="43"/>
-      <c r="D714" s="44"/>
+      <c r="C714" s="38"/>
+      <c r="D714" s="39"/>
       <c r="E714" s="7"/>
       <c r="F714" s="1"/>
     </row>
     <row r="715" spans="3:6" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="C715" s="43"/>
-      <c r="D715" s="44"/>
+      <c r="C715" s="38"/>
+      <c r="D715" s="39"/>
       <c r="E715" s="6" t="s">
         <v>827</v>
       </c>
       <c r="F715" s="1"/>
     </row>
     <row r="716" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C716" s="43"/>
-      <c r="D716" s="44"/>
+      <c r="C716" s="38"/>
+      <c r="D716" s="39"/>
       <c r="E716" s="7"/>
       <c r="F716" s="1"/>
     </row>
     <row r="717" spans="3:6" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C717" s="43"/>
-      <c r="D717" s="44"/>
+      <c r="C717" s="38"/>
+      <c r="D717" s="39"/>
       <c r="E717" s="6" t="s">
         <v>828</v>
       </c>
@@ -13612,10 +13612,10 @@
       <c r="F720" s="1"/>
     </row>
     <row r="721" spans="3:6" ht="374.4" x14ac:dyDescent="0.4">
-      <c r="C721" s="43">
+      <c r="C721" s="38">
         <v>-3147</v>
       </c>
-      <c r="D721" s="44" t="s">
+      <c r="D721" s="39" t="s">
         <v>834</v>
       </c>
       <c r="E721" s="12" t="s">
@@ -13624,64 +13624,64 @@
       <c r="F721" s="1"/>
     </row>
     <row r="722" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C722" s="43"/>
-      <c r="D722" s="44"/>
+      <c r="C722" s="38"/>
+      <c r="D722" s="39"/>
       <c r="E722" s="2"/>
       <c r="F722" s="1"/>
     </row>
     <row r="723" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C723" s="43"/>
-      <c r="D723" s="44"/>
+      <c r="C723" s="38"/>
+      <c r="D723" s="39"/>
       <c r="E723" s="12"/>
       <c r="F723" s="1"/>
     </row>
     <row r="724" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C724" s="43"/>
-      <c r="D724" s="44"/>
+      <c r="C724" s="38"/>
+      <c r="D724" s="39"/>
       <c r="E724" s="2"/>
       <c r="F724" s="1"/>
     </row>
     <row r="725" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C725" s="43"/>
-      <c r="D725" s="44"/>
+      <c r="C725" s="38"/>
+      <c r="D725" s="39"/>
       <c r="E725" s="12"/>
       <c r="F725" s="1"/>
     </row>
     <row r="726" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C726" s="43"/>
-      <c r="D726" s="44"/>
+      <c r="C726" s="38"/>
+      <c r="D726" s="39"/>
       <c r="E726" s="12"/>
       <c r="F726" s="1"/>
     </row>
     <row r="727" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C727" s="43"/>
-      <c r="D727" s="44"/>
+      <c r="C727" s="38"/>
+      <c r="D727" s="39"/>
       <c r="E727" s="12"/>
       <c r="F727" s="1"/>
     </row>
     <row r="728" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C728" s="43"/>
-      <c r="D728" s="44"/>
+      <c r="C728" s="38"/>
+      <c r="D728" s="39"/>
       <c r="E728" s="12"/>
       <c r="F728" s="1"/>
     </row>
     <row r="729" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C729" s="43"/>
-      <c r="D729" s="44"/>
+      <c r="C729" s="38"/>
+      <c r="D729" s="39"/>
       <c r="E729" s="12"/>
       <c r="F729" s="1"/>
     </row>
     <row r="730" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C730" s="43"/>
-      <c r="D730" s="44"/>
+      <c r="C730" s="38"/>
+      <c r="D730" s="39"/>
       <c r="E730" s="12"/>
       <c r="F730" s="1"/>
     </row>
     <row r="731" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C731" s="41" t="s">
+      <c r="C731" s="44" t="s">
         <v>835</v>
       </c>
-      <c r="D731" s="42" t="s">
+      <c r="D731" s="45" t="s">
         <v>836</v>
       </c>
       <c r="E731" s="13" t="s">
@@ -13690,8 +13690,8 @@
       <c r="F731" s="1"/>
     </row>
     <row r="732" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C732" s="41"/>
-      <c r="D732" s="42"/>
+      <c r="C732" s="44"/>
+      <c r="D732" s="45"/>
       <c r="E732" s="13" t="s">
         <v>838</v>
       </c>
@@ -13710,10 +13710,10 @@
       <c r="F733" s="1"/>
     </row>
     <row r="734" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C734" s="41" t="s">
+      <c r="C734" s="44" t="s">
         <v>842</v>
       </c>
-      <c r="D734" s="42" t="s">
+      <c r="D734" s="45" t="s">
         <v>843</v>
       </c>
       <c r="E734" s="13" t="s">
@@ -13722,8 +13722,8 @@
       <c r="F734" s="1"/>
     </row>
     <row r="735" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C735" s="41"/>
-      <c r="D735" s="42"/>
+      <c r="C735" s="44"/>
+      <c r="D735" s="45"/>
       <c r="E735" s="13" t="s">
         <v>844</v>
       </c>
@@ -13778,23 +13778,23 @@
       <c r="F739" s="1"/>
     </row>
     <row r="740" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C740" s="41" t="s">
+      <c r="C740" s="44" t="s">
         <v>857</v>
       </c>
       <c r="D740" s="13" t="s">
         <v>858</v>
       </c>
-      <c r="E740" s="42" t="s">
+      <c r="E740" s="45" t="s">
         <v>860</v>
       </c>
       <c r="F740" s="1"/>
     </row>
     <row r="741" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C741" s="41"/>
+      <c r="C741" s="44"/>
       <c r="D741" s="13" t="s">
         <v>859</v>
       </c>
-      <c r="E741" s="42"/>
+      <c r="E741" s="45"/>
       <c r="F741" s="1"/>
     </row>
     <row r="742" spans="3:6" x14ac:dyDescent="0.4">
@@ -13877,7 +13877,7 @@
         <v>1466</v>
       </c>
       <c r="D750" s="14" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="E750" s="2"/>
       <c r="F750" s="1"/>
@@ -14198,7 +14198,7 @@
         <v>1003</v>
       </c>
       <c r="E781" s="2" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="F781" s="1"/>
     </row>
@@ -15226,7 +15226,7 @@
         <v>1201</v>
       </c>
       <c r="E880" s="2" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="F880" s="1"/>
     </row>
@@ -16618,7 +16618,7 @@
         <v>1504</v>
       </c>
       <c r="E1015" s="23" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="F1015" s="1"/>
     </row>
@@ -16649,203 +16649,73 @@
         <v>908</v>
       </c>
       <c r="D1018" s="14" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="E1018" s="2" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="F1018" s="1" t="s">
-        <v>1507</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="1019" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C1019" s="19" t="s">
+        <v>1508</v>
+      </c>
+      <c r="D1019" s="20" t="s">
+        <v>1510</v>
+      </c>
+      <c r="E1019" s="20" t="s">
         <v>1509</v>
       </c>
-      <c r="D1019" s="20" t="s">
-        <v>1511</v>
-      </c>
-      <c r="E1019" s="20" t="s">
-        <v>1510</v>
-      </c>
       <c r="F1019" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="1020" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C1020" s="19" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="D1020" s="20" t="s">
+        <v>1511</v>
+      </c>
+      <c r="E1020" s="20" t="s">
         <v>1512</v>
       </c>
-      <c r="E1020" s="20" t="s">
-        <v>1513</v>
-      </c>
       <c r="F1020" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="1021" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C1021" s="19" t="s">
+        <v>1514</v>
+      </c>
+      <c r="D1021" s="20" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E1021" s="20" t="s">
+        <v>1518</v>
+      </c>
+      <c r="F1021" t="s">
         <v>1515</v>
-      </c>
-      <c r="D1021" s="20" t="s">
-        <v>1520</v>
-      </c>
-      <c r="E1021" s="20" t="s">
-        <v>1519</v>
-      </c>
-      <c r="F1021" t="s">
-        <v>1516</v>
       </c>
     </row>
     <row r="1022" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C1022" s="19" t="s">
+        <v>1522</v>
+      </c>
+      <c r="D1022" s="20" t="s">
+        <v>1528</v>
+      </c>
+      <c r="E1022" s="20" t="s">
+        <v>1529</v>
+      </c>
+      <c r="F1022" t="s">
         <v>1523</v>
-      </c>
-      <c r="D1022" s="20" t="s">
-        <v>1529</v>
-      </c>
-      <c r="E1022" s="20" t="s">
-        <v>1530</v>
-      </c>
-      <c r="F1022" t="s">
-        <v>1524</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="152">
-    <mergeCell ref="C88:C90"/>
-    <mergeCell ref="D88:D90"/>
-    <mergeCell ref="C286:C287"/>
-    <mergeCell ref="D286:D287"/>
-    <mergeCell ref="E286:E287"/>
-    <mergeCell ref="C291:C293"/>
-    <mergeCell ref="D291:D293"/>
-    <mergeCell ref="C294:C296"/>
-    <mergeCell ref="D294:D296"/>
-    <mergeCell ref="C93:C101"/>
-    <mergeCell ref="D93:D101"/>
-    <mergeCell ref="C102:C115"/>
-    <mergeCell ref="D102:D115"/>
-    <mergeCell ref="E118:E120"/>
-    <mergeCell ref="C250:C252"/>
-    <mergeCell ref="D250:D252"/>
-    <mergeCell ref="C312:C314"/>
-    <mergeCell ref="D312:D314"/>
-    <mergeCell ref="C315:C317"/>
-    <mergeCell ref="D315:D317"/>
-    <mergeCell ref="C318:C320"/>
-    <mergeCell ref="D318:D320"/>
-    <mergeCell ref="C298:C300"/>
-    <mergeCell ref="D298:D300"/>
-    <mergeCell ref="C301:C305"/>
-    <mergeCell ref="D301:D305"/>
-    <mergeCell ref="C306:C311"/>
-    <mergeCell ref="D306:D311"/>
-    <mergeCell ref="C329:C331"/>
-    <mergeCell ref="D329:D331"/>
-    <mergeCell ref="C333:C336"/>
-    <mergeCell ref="D333:D336"/>
-    <mergeCell ref="C339:C341"/>
-    <mergeCell ref="D339:D341"/>
-    <mergeCell ref="C321:C323"/>
-    <mergeCell ref="D321:D323"/>
-    <mergeCell ref="C325:C328"/>
-    <mergeCell ref="D325:D328"/>
-    <mergeCell ref="C361:C367"/>
-    <mergeCell ref="D361:D367"/>
-    <mergeCell ref="C368:C373"/>
-    <mergeCell ref="D368:D373"/>
-    <mergeCell ref="C374:C378"/>
-    <mergeCell ref="D374:D378"/>
-    <mergeCell ref="C342:C346"/>
-    <mergeCell ref="D342:D346"/>
-    <mergeCell ref="C347:C349"/>
-    <mergeCell ref="D347:D349"/>
-    <mergeCell ref="C354:C359"/>
-    <mergeCell ref="D354:D359"/>
-    <mergeCell ref="C390:C392"/>
-    <mergeCell ref="D390:D392"/>
-    <mergeCell ref="C393:C395"/>
-    <mergeCell ref="D393:D395"/>
-    <mergeCell ref="C396:C398"/>
-    <mergeCell ref="D396:D398"/>
-    <mergeCell ref="C381:C383"/>
-    <mergeCell ref="D381:D383"/>
-    <mergeCell ref="C384:C386"/>
-    <mergeCell ref="D384:D386"/>
-    <mergeCell ref="C387:C389"/>
-    <mergeCell ref="D387:D389"/>
-    <mergeCell ref="C409:C413"/>
-    <mergeCell ref="D409:D413"/>
-    <mergeCell ref="C415:C420"/>
-    <mergeCell ref="D415:D420"/>
-    <mergeCell ref="C421:C423"/>
-    <mergeCell ref="D421:D423"/>
-    <mergeCell ref="C399:C401"/>
-    <mergeCell ref="D399:D401"/>
-    <mergeCell ref="C402:C404"/>
-    <mergeCell ref="D402:D404"/>
-    <mergeCell ref="C405:C407"/>
-    <mergeCell ref="D405:D407"/>
-    <mergeCell ref="C439:C442"/>
-    <mergeCell ref="D439:D442"/>
-    <mergeCell ref="C443:C445"/>
-    <mergeCell ref="D443:D445"/>
-    <mergeCell ref="C479:C481"/>
-    <mergeCell ref="D479:D481"/>
-    <mergeCell ref="C428:C431"/>
-    <mergeCell ref="D428:D431"/>
-    <mergeCell ref="C432:C434"/>
-    <mergeCell ref="D432:D434"/>
-    <mergeCell ref="C435:C437"/>
-    <mergeCell ref="D435:D437"/>
-    <mergeCell ref="C546:C554"/>
-    <mergeCell ref="D546:D554"/>
-    <mergeCell ref="C555:C559"/>
-    <mergeCell ref="D555:D559"/>
-    <mergeCell ref="C490:C496"/>
-    <mergeCell ref="D490:D496"/>
-    <mergeCell ref="C534:C536"/>
-    <mergeCell ref="D534:D536"/>
-    <mergeCell ref="C537:C539"/>
-    <mergeCell ref="D537:D539"/>
-    <mergeCell ref="C586:C588"/>
-    <mergeCell ref="D586:D588"/>
-    <mergeCell ref="C589:C593"/>
-    <mergeCell ref="D589:D593"/>
-    <mergeCell ref="C595:C597"/>
-    <mergeCell ref="D595:D597"/>
-    <mergeCell ref="C560:C579"/>
-    <mergeCell ref="D560:D579"/>
-    <mergeCell ref="C580:C582"/>
-    <mergeCell ref="D580:D582"/>
-    <mergeCell ref="C583:C585"/>
-    <mergeCell ref="D583:D585"/>
-    <mergeCell ref="C628:C634"/>
-    <mergeCell ref="D628:D634"/>
-    <mergeCell ref="C635:C640"/>
-    <mergeCell ref="D635:D640"/>
-    <mergeCell ref="C598:C614"/>
-    <mergeCell ref="D598:D614"/>
-    <mergeCell ref="C616:C618"/>
-    <mergeCell ref="D616:D618"/>
-    <mergeCell ref="C620:C625"/>
-    <mergeCell ref="D620:D625"/>
-    <mergeCell ref="C666:C668"/>
-    <mergeCell ref="D666:D668"/>
-    <mergeCell ref="C672:C676"/>
-    <mergeCell ref="D672:D676"/>
-    <mergeCell ref="C679:C682"/>
-    <mergeCell ref="D679:D682"/>
-    <mergeCell ref="C643:C645"/>
-    <mergeCell ref="D643:D645"/>
-    <mergeCell ref="C647:C654"/>
-    <mergeCell ref="D647:D654"/>
-    <mergeCell ref="C657:C665"/>
-    <mergeCell ref="D657:D665"/>
     <mergeCell ref="C62:C63"/>
     <mergeCell ref="D62:D63"/>
     <mergeCell ref="C740:C741"/>
@@ -16868,6 +16738,136 @@
     <mergeCell ref="D688:D695"/>
     <mergeCell ref="C696:C700"/>
     <mergeCell ref="D696:D700"/>
+    <mergeCell ref="C666:C668"/>
+    <mergeCell ref="D666:D668"/>
+    <mergeCell ref="C672:C676"/>
+    <mergeCell ref="D672:D676"/>
+    <mergeCell ref="C679:C682"/>
+    <mergeCell ref="D679:D682"/>
+    <mergeCell ref="C643:C645"/>
+    <mergeCell ref="D643:D645"/>
+    <mergeCell ref="C647:C654"/>
+    <mergeCell ref="D647:D654"/>
+    <mergeCell ref="C657:C665"/>
+    <mergeCell ref="D657:D665"/>
+    <mergeCell ref="C628:C634"/>
+    <mergeCell ref="D628:D634"/>
+    <mergeCell ref="C635:C640"/>
+    <mergeCell ref="D635:D640"/>
+    <mergeCell ref="C598:C614"/>
+    <mergeCell ref="D598:D614"/>
+    <mergeCell ref="C616:C618"/>
+    <mergeCell ref="D616:D618"/>
+    <mergeCell ref="C620:C625"/>
+    <mergeCell ref="D620:D625"/>
+    <mergeCell ref="C586:C588"/>
+    <mergeCell ref="D586:D588"/>
+    <mergeCell ref="C589:C593"/>
+    <mergeCell ref="D589:D593"/>
+    <mergeCell ref="C595:C597"/>
+    <mergeCell ref="D595:D597"/>
+    <mergeCell ref="C560:C579"/>
+    <mergeCell ref="D560:D579"/>
+    <mergeCell ref="C580:C582"/>
+    <mergeCell ref="D580:D582"/>
+    <mergeCell ref="C583:C585"/>
+    <mergeCell ref="D583:D585"/>
+    <mergeCell ref="C546:C554"/>
+    <mergeCell ref="D546:D554"/>
+    <mergeCell ref="C555:C559"/>
+    <mergeCell ref="D555:D559"/>
+    <mergeCell ref="C490:C496"/>
+    <mergeCell ref="D490:D496"/>
+    <mergeCell ref="C534:C536"/>
+    <mergeCell ref="D534:D536"/>
+    <mergeCell ref="C537:C539"/>
+    <mergeCell ref="D537:D539"/>
+    <mergeCell ref="C439:C442"/>
+    <mergeCell ref="D439:D442"/>
+    <mergeCell ref="C443:C445"/>
+    <mergeCell ref="D443:D445"/>
+    <mergeCell ref="C479:C481"/>
+    <mergeCell ref="D479:D481"/>
+    <mergeCell ref="C428:C431"/>
+    <mergeCell ref="D428:D431"/>
+    <mergeCell ref="C432:C434"/>
+    <mergeCell ref="D432:D434"/>
+    <mergeCell ref="C435:C437"/>
+    <mergeCell ref="D435:D437"/>
+    <mergeCell ref="C409:C413"/>
+    <mergeCell ref="D409:D413"/>
+    <mergeCell ref="C415:C420"/>
+    <mergeCell ref="D415:D420"/>
+    <mergeCell ref="C421:C423"/>
+    <mergeCell ref="D421:D423"/>
+    <mergeCell ref="C399:C401"/>
+    <mergeCell ref="D399:D401"/>
+    <mergeCell ref="C402:C404"/>
+    <mergeCell ref="D402:D404"/>
+    <mergeCell ref="C405:C407"/>
+    <mergeCell ref="D405:D407"/>
+    <mergeCell ref="C390:C392"/>
+    <mergeCell ref="D390:D392"/>
+    <mergeCell ref="C393:C395"/>
+    <mergeCell ref="D393:D395"/>
+    <mergeCell ref="C396:C398"/>
+    <mergeCell ref="D396:D398"/>
+    <mergeCell ref="C381:C383"/>
+    <mergeCell ref="D381:D383"/>
+    <mergeCell ref="C384:C386"/>
+    <mergeCell ref="D384:D386"/>
+    <mergeCell ref="C387:C389"/>
+    <mergeCell ref="D387:D389"/>
+    <mergeCell ref="C361:C367"/>
+    <mergeCell ref="D361:D367"/>
+    <mergeCell ref="C368:C373"/>
+    <mergeCell ref="D368:D373"/>
+    <mergeCell ref="C374:C378"/>
+    <mergeCell ref="D374:D378"/>
+    <mergeCell ref="C342:C346"/>
+    <mergeCell ref="D342:D346"/>
+    <mergeCell ref="C347:C349"/>
+    <mergeCell ref="D347:D349"/>
+    <mergeCell ref="C354:C359"/>
+    <mergeCell ref="D354:D359"/>
+    <mergeCell ref="C329:C331"/>
+    <mergeCell ref="D329:D331"/>
+    <mergeCell ref="C333:C336"/>
+    <mergeCell ref="D333:D336"/>
+    <mergeCell ref="C339:C341"/>
+    <mergeCell ref="D339:D341"/>
+    <mergeCell ref="C321:C323"/>
+    <mergeCell ref="D321:D323"/>
+    <mergeCell ref="C325:C328"/>
+    <mergeCell ref="D325:D328"/>
+    <mergeCell ref="C312:C314"/>
+    <mergeCell ref="D312:D314"/>
+    <mergeCell ref="C315:C317"/>
+    <mergeCell ref="D315:D317"/>
+    <mergeCell ref="C318:C320"/>
+    <mergeCell ref="D318:D320"/>
+    <mergeCell ref="C298:C300"/>
+    <mergeCell ref="D298:D300"/>
+    <mergeCell ref="C301:C305"/>
+    <mergeCell ref="D301:D305"/>
+    <mergeCell ref="C306:C311"/>
+    <mergeCell ref="D306:D311"/>
+    <mergeCell ref="C88:C90"/>
+    <mergeCell ref="D88:D90"/>
+    <mergeCell ref="C286:C287"/>
+    <mergeCell ref="D286:D287"/>
+    <mergeCell ref="E286:E287"/>
+    <mergeCell ref="C291:C293"/>
+    <mergeCell ref="D291:D293"/>
+    <mergeCell ref="C294:C296"/>
+    <mergeCell ref="D294:D296"/>
+    <mergeCell ref="C93:C101"/>
+    <mergeCell ref="D93:D101"/>
+    <mergeCell ref="C102:C115"/>
+    <mergeCell ref="D102:D115"/>
+    <mergeCell ref="E118:E120"/>
+    <mergeCell ref="C250:C252"/>
+    <mergeCell ref="D250:D252"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
